--- a/Workbook/HV_TestCases_Selenium.xlsx
+++ b/Workbook/HV_TestCases_Selenium.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15899EF-834A-40EF-8045-24CAFBD4E303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9756006-C31A-4A59-8526-18363AFEDE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="382" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" tabRatio="382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseSummry" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9931" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9931" uniqueCount="451">
   <si>
     <t>TC ID</t>
   </si>
@@ -1584,9 +1584,6 @@
     <t>7000</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>RedirectUris</t>
   </si>
   <si>
@@ -1618,8 +1615,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2019,22 +2015,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,9 +2064,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2065,24 +2079,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22976,13 +22972,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="68.85546875" collapsed="true"/>
+    <col min="4" max="4" width="68.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -23010,7 +23006,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>283</v>
@@ -23024,7 +23020,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>284</v>
@@ -23038,7 +23034,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>406</v>
@@ -23052,7 +23048,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>346</v>
@@ -23067,7 +23063,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>285</v>
@@ -23081,7 +23077,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>307</v>
@@ -23095,7 +23091,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>402</v>
@@ -23109,7 +23105,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>370</v>
@@ -23495,26 +23491,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="23.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="31.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="25.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="16.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="18.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="6" width="9.140625" collapsed="true"/>
-    <col min="13" max="16384" style="6" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="6" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -23556,7 +23552,7 @@
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="66" t="s">
         <v>217</v>
       </c>
       <c r="C2" s="15">
@@ -23594,7 +23590,7 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="63">
         <v>2</v>
       </c>
@@ -23628,7 +23624,7 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="23">
         <v>3</v>
       </c>
@@ -23664,7 +23660,7 @@
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="15">
         <v>4</v>
       </c>
@@ -23698,7 +23694,7 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="23">
         <v>5</v>
       </c>
@@ -23732,7 +23728,7 @@
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="15">
         <v>6</v>
       </c>
@@ -23766,7 +23762,7 @@
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="23">
         <v>7</v>
       </c>
@@ -23802,7 +23798,7 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="15">
         <v>7</v>
       </c>
@@ -23836,7 +23832,7 @@
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="23">
         <v>8</v>
       </c>
@@ -23872,7 +23868,7 @@
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="15">
         <v>9</v>
       </c>
@@ -23906,7 +23902,7 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="75"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="23">
         <v>10</v>
       </c>
@@ -23942,7 +23938,7 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="15">
         <v>11</v>
       </c>
@@ -23976,7 +23972,7 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="23">
         <v>12</v>
       </c>
@@ -24012,7 +24008,7 @@
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="15">
         <v>13</v>
       </c>
@@ -24046,7 +24042,7 @@
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="75"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="23">
         <v>14</v>
       </c>
@@ -24082,7 +24078,7 @@
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="15">
         <v>15</v>
       </c>
@@ -24116,7 +24112,7 @@
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="23">
         <v>16</v>
       </c>
@@ -24152,7 +24148,7 @@
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="75"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="15">
         <v>17</v>
       </c>
@@ -24188,7 +24184,7 @@
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="23">
         <v>18</v>
       </c>
@@ -24224,7 +24220,7 @@
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="75"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="15">
         <v>19</v>
       </c>
@@ -24258,7 +24254,7 @@
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="75"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="23">
         <v>20</v>
       </c>
@@ -24294,7 +24290,7 @@
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="15">
         <v>21</v>
       </c>
@@ -24328,7 +24324,7 @@
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="75"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="23">
         <v>22</v>
       </c>
@@ -24364,7 +24360,7 @@
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="83"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="15">
         <v>23</v>
       </c>
@@ -24400,7 +24396,7 @@
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="65"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="23" t="s">
         <v>25</v>
       </c>
@@ -24436,7 +24432,7 @@
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="85"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="64" t="s">
         <v>5</v>
       </c>
@@ -24470,7 +24466,7 @@
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="23" t="s">
         <v>26</v>
       </c>
@@ -24504,7 +24500,7 @@
       <c r="A29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="66"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="64" t="s">
         <v>7</v>
       </c>
@@ -24538,7 +24534,7 @@
       <c r="A30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="66"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="23" t="s">
         <v>6</v>
       </c>
@@ -24572,7 +24568,7 @@
       <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="66"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="64" t="s">
         <v>27</v>
       </c>
@@ -24606,7 +24602,7 @@
       <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="66"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="23" t="s">
         <v>15</v>
       </c>
@@ -24642,7 +24638,7 @@
       <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="66"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="64" t="s">
         <v>28</v>
       </c>
@@ -24676,7 +24672,7 @@
       <c r="A34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="66"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="23" t="s">
         <v>8</v>
       </c>
@@ -24712,7 +24708,7 @@
       <c r="A35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="66"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="64" t="s">
         <v>29</v>
       </c>
@@ -24746,7 +24742,7 @@
       <c r="A36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="66"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="23" t="s">
         <v>30</v>
       </c>
@@ -24782,7 +24778,7 @@
       <c r="A37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="66"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="64" t="s">
         <v>31</v>
       </c>
@@ -24816,7 +24812,7 @@
       <c r="A38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="66"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="23" t="s">
         <v>32</v>
       </c>
@@ -24852,7 +24848,7 @@
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="66"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="64" t="s">
         <v>33</v>
       </c>
@@ -24886,7 +24882,7 @@
       <c r="A40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="66"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="23" t="s">
         <v>48</v>
       </c>
@@ -24922,7 +24918,7 @@
       <c r="A41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="66"/>
+      <c r="B41" s="74"/>
       <c r="C41" s="64" t="s">
         <v>49</v>
       </c>
@@ -24956,7 +24952,7 @@
       <c r="A42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="66"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="23" t="s">
         <v>50</v>
       </c>
@@ -24992,7 +24988,7 @@
       <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="66"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="64" t="s">
         <v>51</v>
       </c>
@@ -25028,7 +25024,7 @@
       <c r="A44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="66"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="23" t="s">
         <v>52</v>
       </c>
@@ -25064,7 +25060,7 @@
       <c r="A45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="66"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="64" t="s">
         <v>53</v>
       </c>
@@ -25098,7 +25094,7 @@
       <c r="A46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="66"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="23" t="s">
         <v>54</v>
       </c>
@@ -25132,7 +25128,7 @@
       <c r="A47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="66"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="64" t="s">
         <v>55</v>
       </c>
@@ -25166,7 +25162,7 @@
       <c r="A48" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="66"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="23" t="s">
         <v>56</v>
       </c>
@@ -25200,7 +25196,7 @@
       <c r="A49" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="66"/>
+      <c r="B49" s="74"/>
       <c r="C49" s="64" t="s">
         <v>57</v>
       </c>
@@ -25234,7 +25230,7 @@
       <c r="A50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="66"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="23" t="s">
         <v>84</v>
       </c>
@@ -25268,7 +25264,7 @@
       <c r="A51" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="66"/>
+      <c r="B51" s="74"/>
       <c r="C51" s="64" t="s">
         <v>86</v>
       </c>
@@ -25302,7 +25298,7 @@
       <c r="A52" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="66"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="23" t="s">
         <v>87</v>
       </c>
@@ -25336,7 +25332,7 @@
       <c r="A53" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="66"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="64" t="s">
         <v>88</v>
       </c>
@@ -25370,7 +25366,7 @@
       <c r="A54" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="66"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="23" t="s">
         <v>89</v>
       </c>
@@ -25406,7 +25402,7 @@
       <c r="A55" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="66"/>
+      <c r="B55" s="74"/>
       <c r="C55" s="64" t="s">
         <v>90</v>
       </c>
@@ -25442,7 +25438,7 @@
       <c r="A56" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="71" t="s">
         <v>218</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -25480,7 +25476,7 @@
       <c r="A57" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="69"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="11" t="s">
         <v>5</v>
       </c>
@@ -25516,7 +25512,7 @@
       <c r="A58" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="69"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="11" t="s">
         <v>26</v>
       </c>
@@ -25550,7 +25546,7 @@
       <c r="A59" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="69"/>
+      <c r="B59" s="71"/>
       <c r="C59" s="11" t="s">
         <v>7</v>
       </c>
@@ -25584,7 +25580,7 @@
       <c r="A60" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="69"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="11" t="s">
         <v>6</v>
       </c>
@@ -25618,7 +25614,7 @@
       <c r="A61" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="69"/>
+      <c r="B61" s="71"/>
       <c r="C61" s="11" t="s">
         <v>27</v>
       </c>
@@ -25652,7 +25648,7 @@
       <c r="A62" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="69"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="11" t="s">
         <v>15</v>
       </c>
@@ -25688,7 +25684,7 @@
       <c r="A63" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="69"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="11" t="s">
         <v>28</v>
       </c>
@@ -25720,7 +25716,7 @@
       <c r="A64" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="69"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="11" t="s">
         <v>8</v>
       </c>
@@ -25756,7 +25752,7 @@
       <c r="A65" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="69"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="11" t="s">
         <v>29</v>
       </c>
@@ -25790,7 +25786,7 @@
       <c r="A66" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="85" t="s">
+      <c r="B66" s="73" t="s">
         <v>219</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -25828,7 +25824,7 @@
       <c r="A67" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="85"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="13" t="s">
         <v>5</v>
       </c>
@@ -25862,7 +25858,7 @@
       <c r="A68" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="66"/>
+      <c r="B68" s="74"/>
       <c r="C68" s="13" t="s">
         <v>26</v>
       </c>
@@ -25898,7 +25894,7 @@
       <c r="A69" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="66"/>
+      <c r="B69" s="74"/>
       <c r="C69" s="13" t="s">
         <v>7</v>
       </c>
@@ -25932,7 +25928,7 @@
       <c r="A70" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="66"/>
+      <c r="B70" s="74"/>
       <c r="C70" s="13" t="s">
         <v>6</v>
       </c>
@@ -25966,7 +25962,7 @@
       <c r="A71" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="66"/>
+      <c r="B71" s="74"/>
       <c r="C71" s="13" t="s">
         <v>27</v>
       </c>
@@ -26000,7 +25996,7 @@
       <c r="A72" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="66"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="13" t="s">
         <v>15</v>
       </c>
@@ -26036,7 +26032,7 @@
       <c r="A73" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="66"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="13" t="s">
         <v>28</v>
       </c>
@@ -26070,7 +26066,7 @@
       <c r="A74" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="66"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="13" t="s">
         <v>8</v>
       </c>
@@ -26106,7 +26102,7 @@
       <c r="A75" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="66"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="13" t="s">
         <v>29</v>
       </c>
@@ -26140,7 +26136,7 @@
       <c r="A76" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="66"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="13" t="s">
         <v>30</v>
       </c>
@@ -26176,7 +26172,7 @@
       <c r="A77" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B77" s="66"/>
+      <c r="B77" s="74"/>
       <c r="C77" s="13" t="s">
         <v>31</v>
       </c>
@@ -26212,7 +26208,7 @@
       <c r="A78" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="66"/>
+      <c r="B78" s="74"/>
       <c r="C78" s="13" t="s">
         <v>32</v>
       </c>
@@ -26246,7 +26242,7 @@
       <c r="A79" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B79" s="66"/>
+      <c r="B79" s="74"/>
       <c r="C79" s="13" t="s">
         <v>33</v>
       </c>
@@ -26282,7 +26278,7 @@
       <c r="A80" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="66"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="13" t="s">
         <v>48</v>
       </c>
@@ -26316,7 +26312,7 @@
       <c r="A81" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="66"/>
+      <c r="B81" s="74"/>
       <c r="C81" s="13" t="s">
         <v>49</v>
       </c>
@@ -26352,7 +26348,7 @@
       <c r="A82" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="66"/>
+      <c r="B82" s="74"/>
       <c r="C82" s="13" t="s">
         <v>50</v>
       </c>
@@ -26385,7 +26381,7 @@
       <c r="A83" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="66"/>
+      <c r="B83" s="74"/>
       <c r="C83" s="13" t="s">
         <v>51</v>
       </c>
@@ -26421,7 +26417,7 @@
       <c r="A84" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B84" s="66"/>
+      <c r="B84" s="74"/>
       <c r="C84" s="13" t="s">
         <v>52</v>
       </c>
@@ -26454,7 +26450,7 @@
       <c r="A85" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="66"/>
+      <c r="B85" s="74"/>
       <c r="C85" s="13" t="s">
         <v>53</v>
       </c>
@@ -26487,7 +26483,7 @@
       <c r="A86" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="66"/>
+      <c r="B86" s="74"/>
       <c r="C86" s="13" t="s">
         <v>54</v>
       </c>
@@ -26520,7 +26516,7 @@
       <c r="A87" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="66"/>
+      <c r="B87" s="74"/>
       <c r="C87" s="13" t="s">
         <v>55</v>
       </c>
@@ -26553,7 +26549,7 @@
       <c r="A88" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B88" s="66"/>
+      <c r="B88" s="74"/>
       <c r="C88" s="13" t="s">
         <v>56</v>
       </c>
@@ -26586,7 +26582,7 @@
       <c r="A89" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B89" s="66"/>
+      <c r="B89" s="74"/>
       <c r="C89" s="13" t="s">
         <v>57</v>
       </c>
@@ -26594,16 +26590,16 @@
         <v>9</v>
       </c>
       <c r="F89" s="58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G89" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H89" s="58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I89" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J89" s="21" t="s">
         <v>11</v>
@@ -26619,7 +26615,7 @@
       <c r="A90" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B90" s="66"/>
+      <c r="B90" s="74"/>
       <c r="C90" s="13" t="s">
         <v>84</v>
       </c>
@@ -26652,7 +26648,7 @@
       <c r="A91" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="66"/>
+      <c r="B91" s="74"/>
       <c r="C91" s="13" t="s">
         <v>86</v>
       </c>
@@ -26660,13 +26656,13 @@
         <v>10</v>
       </c>
       <c r="F91" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G91" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H91" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I91" s="58" t="s">
         <v>11</v>
@@ -26685,7 +26681,7 @@
       <c r="A92" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="66"/>
+      <c r="B92" s="74"/>
       <c r="C92" s="13" t="s">
         <v>87</v>
       </c>
@@ -26718,7 +26714,7 @@
       <c r="A93" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="66"/>
+      <c r="B93" s="74"/>
       <c r="C93" s="13" t="s">
         <v>88</v>
       </c>
@@ -26751,7 +26747,7 @@
       <c r="A94" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="66"/>
+      <c r="B94" s="74"/>
       <c r="C94" s="13" t="s">
         <v>89</v>
       </c>
@@ -26759,16 +26755,16 @@
         <v>9</v>
       </c>
       <c r="F94" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G94" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H94" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I94" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J94" s="21" t="s">
         <v>11</v>
@@ -26784,7 +26780,7 @@
       <c r="A95" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B95" s="66"/>
+      <c r="B95" s="74"/>
       <c r="C95" s="13" t="s">
         <v>90</v>
       </c>
@@ -26792,16 +26788,16 @@
         <v>9</v>
       </c>
       <c r="F95" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G95" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I95" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J95" s="21" t="s">
         <v>11</v>
@@ -26817,7 +26813,7 @@
       <c r="A96" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="66"/>
+      <c r="B96" s="74"/>
       <c r="C96" s="13" t="s">
         <v>91</v>
       </c>
@@ -26825,16 +26821,16 @@
         <v>9</v>
       </c>
       <c r="F96" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G96" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H96" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J96" s="21" t="s">
         <v>11</v>
@@ -26850,7 +26846,7 @@
       <c r="A97" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B97" s="66"/>
+      <c r="B97" s="74"/>
       <c r="C97" s="13" t="s">
         <v>99</v>
       </c>
@@ -26883,7 +26879,7 @@
       <c r="A98" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="66"/>
+      <c r="B98" s="74"/>
       <c r="C98" s="13" t="s">
         <v>102</v>
       </c>
@@ -26916,7 +26912,7 @@
       <c r="A99" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="66"/>
+      <c r="B99" s="74"/>
       <c r="C99" s="13" t="s">
         <v>103</v>
       </c>
@@ -26949,7 +26945,7 @@
       <c r="A100" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="66"/>
+      <c r="B100" s="74"/>
       <c r="C100" s="13" t="s">
         <v>104</v>
       </c>
@@ -26982,7 +26978,7 @@
       <c r="A101" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="66"/>
+      <c r="B101" s="74"/>
       <c r="C101" s="13" t="s">
         <v>105</v>
       </c>
@@ -27018,7 +27014,7 @@
       <c r="A102" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B102" s="66"/>
+      <c r="B102" s="74"/>
       <c r="C102" s="13" t="s">
         <v>107</v>
       </c>
@@ -27054,7 +27050,7 @@
       <c r="A103" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B103" s="84" t="s">
+      <c r="B103" s="70" t="s">
         <v>220</v>
       </c>
       <c r="C103" s="15">
@@ -27092,7 +27088,7 @@
       <c r="A104" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B104" s="69"/>
+      <c r="B104" s="71"/>
       <c r="C104" s="23">
         <v>2</v>
       </c>
@@ -27128,7 +27124,7 @@
       <c r="A105" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B105" s="69"/>
+      <c r="B105" s="71"/>
       <c r="C105" s="15">
         <v>3</v>
       </c>
@@ -27162,7 +27158,7 @@
       <c r="A106" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B106" s="69"/>
+      <c r="B106" s="71"/>
       <c r="C106" s="23">
         <v>4</v>
       </c>
@@ -27196,7 +27192,7 @@
       <c r="A107" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="69"/>
+      <c r="B107" s="71"/>
       <c r="C107" s="15">
         <v>5</v>
       </c>
@@ -27230,7 +27226,7 @@
       <c r="A108" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="69"/>
+      <c r="B108" s="71"/>
       <c r="C108" s="23">
         <v>6</v>
       </c>
@@ -27266,7 +27262,7 @@
       <c r="A109" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B109" s="69"/>
+      <c r="B109" s="71"/>
       <c r="C109" s="15">
         <v>7</v>
       </c>
@@ -27300,7 +27296,7 @@
       <c r="A110" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B110" s="69"/>
+      <c r="B110" s="71"/>
       <c r="C110" s="23">
         <v>8</v>
       </c>
@@ -27336,7 +27332,7 @@
       <c r="A111" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B111" s="69"/>
+      <c r="B111" s="71"/>
       <c r="C111" s="15">
         <v>9</v>
       </c>
@@ -27370,7 +27366,7 @@
       <c r="A112" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B112" s="69"/>
+      <c r="B112" s="71"/>
       <c r="C112" s="23">
         <v>10</v>
       </c>
@@ -27406,7 +27402,7 @@
       <c r="A113" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="69"/>
+      <c r="B113" s="71"/>
       <c r="C113" s="15">
         <v>11</v>
       </c>
@@ -27440,7 +27436,7 @@
       <c r="A114" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="69"/>
+      <c r="B114" s="71"/>
       <c r="C114" s="23">
         <v>12</v>
       </c>
@@ -27476,7 +27472,7 @@
       <c r="A115" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B115" s="69"/>
+      <c r="B115" s="71"/>
       <c r="C115" s="15">
         <v>13</v>
       </c>
@@ -27510,7 +27506,7 @@
       <c r="A116" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B116" s="69"/>
+      <c r="B116" s="71"/>
       <c r="C116" s="23">
         <v>14</v>
       </c>
@@ -27546,7 +27542,7 @@
       <c r="A117" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B117" s="69"/>
+      <c r="B117" s="71"/>
       <c r="C117" s="15">
         <v>15</v>
       </c>
@@ -27580,7 +27576,7 @@
       <c r="A118" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="69"/>
+      <c r="B118" s="71"/>
       <c r="C118" s="23">
         <v>16</v>
       </c>
@@ -27616,7 +27612,7 @@
       <c r="A119" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="69"/>
+      <c r="B119" s="71"/>
       <c r="C119" s="15">
         <v>17</v>
       </c>
@@ -27649,7 +27645,7 @@
       <c r="A120" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="69"/>
+      <c r="B120" s="71"/>
       <c r="C120" s="23">
         <v>18</v>
       </c>
@@ -27683,7 +27679,7 @@
       <c r="A121" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="69"/>
+      <c r="B121" s="71"/>
       <c r="C121" s="15">
         <v>19</v>
       </c>
@@ -27717,7 +27713,7 @@
       <c r="A122" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="69"/>
+      <c r="B122" s="71"/>
       <c r="C122" s="23">
         <v>20</v>
       </c>
@@ -27751,7 +27747,7 @@
       <c r="A123" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="69"/>
+      <c r="B123" s="71"/>
       <c r="C123" s="15">
         <v>21</v>
       </c>
@@ -27785,7 +27781,7 @@
       <c r="A124" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="69"/>
+      <c r="B124" s="71"/>
       <c r="C124" s="23">
         <v>22</v>
       </c>
@@ -27819,7 +27815,7 @@
       <c r="A125" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="69"/>
+      <c r="B125" s="71"/>
       <c r="C125" s="15">
         <v>23</v>
       </c>
@@ -27853,7 +27849,7 @@
       <c r="A126" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="69"/>
+      <c r="B126" s="71"/>
       <c r="C126" s="23">
         <v>24</v>
       </c>
@@ -27887,7 +27883,7 @@
       <c r="A127" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="69"/>
+      <c r="B127" s="71"/>
       <c r="C127" s="15">
         <v>25</v>
       </c>
@@ -27921,7 +27917,7 @@
       <c r="A128" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="69"/>
+      <c r="B128" s="71"/>
       <c r="C128" s="23">
         <v>26</v>
       </c>
@@ -27955,7 +27951,7 @@
       <c r="A129" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="69"/>
+      <c r="B129" s="71"/>
       <c r="C129" s="15">
         <v>27</v>
       </c>
@@ -27991,7 +27987,7 @@
       <c r="A130" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="70"/>
+      <c r="B130" s="72"/>
       <c r="C130" s="23">
         <v>28</v>
       </c>
@@ -28027,7 +28023,7 @@
       <c r="A131" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="65" t="s">
+      <c r="B131" s="75" t="s">
         <v>221</v>
       </c>
       <c r="C131" s="11" t="s">
@@ -28065,7 +28061,7 @@
       <c r="A132" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B132" s="66"/>
+      <c r="B132" s="74"/>
       <c r="C132" s="11" t="s">
         <v>5</v>
       </c>
@@ -28101,7 +28097,7 @@
       <c r="A133" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B133" s="66"/>
+      <c r="B133" s="74"/>
       <c r="C133" s="11" t="s">
         <v>26</v>
       </c>
@@ -28135,7 +28131,7 @@
       <c r="A134" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="66"/>
+      <c r="B134" s="74"/>
       <c r="C134" s="11" t="s">
         <v>7</v>
       </c>
@@ -28169,7 +28165,7 @@
       <c r="A135" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B135" s="66"/>
+      <c r="B135" s="74"/>
       <c r="C135" s="11" t="s">
         <v>6</v>
       </c>
@@ -28203,7 +28199,7 @@
       <c r="A136" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B136" s="66"/>
+      <c r="B136" s="74"/>
       <c r="C136" s="11" t="s">
         <v>27</v>
       </c>
@@ -28239,7 +28235,7 @@
       <c r="A137" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B137" s="66"/>
+      <c r="B137" s="74"/>
       <c r="C137" s="11" t="s">
         <v>15</v>
       </c>
@@ -28273,7 +28269,7 @@
       <c r="A138" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B138" s="66"/>
+      <c r="B138" s="74"/>
       <c r="C138" s="11" t="s">
         <v>28</v>
       </c>
@@ -28309,7 +28305,7 @@
       <c r="A139" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B139" s="66"/>
+      <c r="B139" s="74"/>
       <c r="C139" s="11" t="s">
         <v>8</v>
       </c>
@@ -28343,7 +28339,7 @@
       <c r="A140" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B140" s="66"/>
+      <c r="B140" s="74"/>
       <c r="C140" s="11" t="s">
         <v>29</v>
       </c>
@@ -28379,7 +28375,7 @@
       <c r="A141" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B141" s="66"/>
+      <c r="B141" s="74"/>
       <c r="C141" s="11" t="s">
         <v>30</v>
       </c>
@@ -28413,7 +28409,7 @@
       <c r="A142" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B142" s="66"/>
+      <c r="B142" s="74"/>
       <c r="C142" s="11" t="s">
         <v>31</v>
       </c>
@@ -28449,7 +28445,7 @@
       <c r="A143" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B143" s="66"/>
+      <c r="B143" s="74"/>
       <c r="C143" s="11" t="s">
         <v>32</v>
       </c>
@@ -28483,7 +28479,7 @@
       <c r="A144" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B144" s="66"/>
+      <c r="B144" s="74"/>
       <c r="C144" s="11" t="s">
         <v>33</v>
       </c>
@@ -28519,7 +28515,7 @@
       <c r="A145" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B145" s="66"/>
+      <c r="B145" s="74"/>
       <c r="C145" s="11" t="s">
         <v>48</v>
       </c>
@@ -28553,7 +28549,7 @@
       <c r="A146" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B146" s="66"/>
+      <c r="B146" s="74"/>
       <c r="C146" s="11" t="s">
         <v>49</v>
       </c>
@@ -28589,7 +28585,7 @@
       <c r="A147" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B147" s="66"/>
+      <c r="B147" s="74"/>
       <c r="C147" s="11" t="s">
         <v>50</v>
       </c>
@@ -28623,7 +28619,7 @@
       <c r="A148" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="66"/>
+      <c r="B148" s="74"/>
       <c r="C148" s="11" t="s">
         <v>51</v>
       </c>
@@ -28657,7 +28653,7 @@
       <c r="A149" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B149" s="66"/>
+      <c r="B149" s="74"/>
       <c r="C149" s="11" t="s">
         <v>52</v>
       </c>
@@ -28691,7 +28687,7 @@
       <c r="A150" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B150" s="66"/>
+      <c r="B150" s="74"/>
       <c r="C150" s="11" t="s">
         <v>53</v>
       </c>
@@ -28725,7 +28721,7 @@
       <c r="A151" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B151" s="66"/>
+      <c r="B151" s="74"/>
       <c r="C151" s="11" t="s">
         <v>54</v>
       </c>
@@ -28759,7 +28755,7 @@
       <c r="A152" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B152" s="66"/>
+      <c r="B152" s="74"/>
       <c r="C152" s="11" t="s">
         <v>55</v>
       </c>
@@ -28793,7 +28789,7 @@
       <c r="A153" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B153" s="66"/>
+      <c r="B153" s="74"/>
       <c r="C153" s="11" t="s">
         <v>56</v>
       </c>
@@ -28825,7 +28821,7 @@
       <c r="A154" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B154" s="86"/>
+      <c r="B154" s="76"/>
       <c r="C154" s="11" t="s">
         <v>57</v>
       </c>
@@ -28861,7 +28857,7 @@
       <c r="A155" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B155" s="84" t="s">
+      <c r="B155" s="70" t="s">
         <v>222</v>
       </c>
       <c r="C155" s="11" t="s">
@@ -28899,7 +28895,7 @@
       <c r="A156" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B156" s="69"/>
+      <c r="B156" s="71"/>
       <c r="C156" s="11" t="s">
         <v>5</v>
       </c>
@@ -28935,7 +28931,7 @@
       <c r="A157" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B157" s="69"/>
+      <c r="B157" s="71"/>
       <c r="C157" s="11" t="s">
         <v>26</v>
       </c>
@@ -28969,7 +28965,7 @@
       <c r="A158" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B158" s="69"/>
+      <c r="B158" s="71"/>
       <c r="C158" s="11" t="s">
         <v>6</v>
       </c>
@@ -29003,7 +28999,7 @@
       <c r="A159" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B159" s="69"/>
+      <c r="B159" s="71"/>
       <c r="C159" s="11" t="s">
         <v>27</v>
       </c>
@@ -29037,7 +29033,7 @@
       <c r="A160" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="69"/>
+      <c r="B160" s="71"/>
       <c r="C160" s="11" t="s">
         <v>15</v>
       </c>
@@ -29073,7 +29069,7 @@
       <c r="A161" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B161" s="69"/>
+      <c r="B161" s="71"/>
       <c r="C161" s="11" t="s">
         <v>28</v>
       </c>
@@ -29107,7 +29103,7 @@
       <c r="A162" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B162" s="69"/>
+      <c r="B162" s="71"/>
       <c r="C162" s="11" t="s">
         <v>8</v>
       </c>
@@ -29143,7 +29139,7 @@
       <c r="A163" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B163" s="69"/>
+      <c r="B163" s="71"/>
       <c r="C163" s="11" t="s">
         <v>29</v>
       </c>
@@ -29177,7 +29173,7 @@
       <c r="A164" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B164" s="69"/>
+      <c r="B164" s="71"/>
       <c r="C164" s="11" t="s">
         <v>30</v>
       </c>
@@ -29213,7 +29209,7 @@
       <c r="A165" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B165" s="69"/>
+      <c r="B165" s="71"/>
       <c r="C165" s="11" t="s">
         <v>31</v>
       </c>
@@ -29247,7 +29243,7 @@
       <c r="A166" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B166" s="69"/>
+      <c r="B166" s="71"/>
       <c r="C166" s="11" t="s">
         <v>32</v>
       </c>
@@ -29283,7 +29279,7 @@
       <c r="A167" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B167" s="69"/>
+      <c r="B167" s="71"/>
       <c r="C167" s="11" t="s">
         <v>33</v>
       </c>
@@ -29317,7 +29313,7 @@
       <c r="A168" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B168" s="69"/>
+      <c r="B168" s="71"/>
       <c r="C168" s="11" t="s">
         <v>48</v>
       </c>
@@ -29353,7 +29349,7 @@
       <c r="A169" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B169" s="69"/>
+      <c r="B169" s="71"/>
       <c r="C169" s="11" t="s">
         <v>49</v>
       </c>
@@ -29387,7 +29383,7 @@
       <c r="A170" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B170" s="69"/>
+      <c r="B170" s="71"/>
       <c r="C170" s="11" t="s">
         <v>50</v>
       </c>
@@ -29423,7 +29419,7 @@
       <c r="A171" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B171" s="69"/>
+      <c r="B171" s="71"/>
       <c r="C171" s="11" t="s">
         <v>51</v>
       </c>
@@ -29457,7 +29453,7 @@
       <c r="A172" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B172" s="69"/>
+      <c r="B172" s="71"/>
       <c r="C172" s="11" t="s">
         <v>52</v>
       </c>
@@ -29493,7 +29489,7 @@
       <c r="A173" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B173" s="69"/>
+      <c r="B173" s="71"/>
       <c r="C173" s="11" t="s">
         <v>53</v>
       </c>
@@ -29527,7 +29523,7 @@
       <c r="A174" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B174" s="69"/>
+      <c r="B174" s="71"/>
       <c r="C174" s="11" t="s">
         <v>54</v>
       </c>
@@ -29563,7 +29559,7 @@
       <c r="A175" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B175" s="69"/>
+      <c r="B175" s="71"/>
       <c r="C175" s="11" t="s">
         <v>55</v>
       </c>
@@ -29597,7 +29593,7 @@
       <c r="A176" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B176" s="69"/>
+      <c r="B176" s="71"/>
       <c r="C176" s="11" t="s">
         <v>56</v>
       </c>
@@ -29633,7 +29629,7 @@
       <c r="A177" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B177" s="69"/>
+      <c r="B177" s="71"/>
       <c r="C177" s="11" t="s">
         <v>57</v>
       </c>
@@ -29669,7 +29665,7 @@
       <c r="A178" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B178" s="69"/>
+      <c r="B178" s="71"/>
       <c r="C178" s="11" t="s">
         <v>84</v>
       </c>
@@ -29702,7 +29698,7 @@
       <c r="A179" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B179" s="69"/>
+      <c r="B179" s="71"/>
       <c r="C179" s="11" t="s">
         <v>86</v>
       </c>
@@ -29738,7 +29734,7 @@
       <c r="A180" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B180" s="69"/>
+      <c r="B180" s="71"/>
       <c r="C180" s="11" t="s">
         <v>87</v>
       </c>
@@ -29772,7 +29768,7 @@
       <c r="A181" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B181" s="69"/>
+      <c r="B181" s="71"/>
       <c r="C181" s="11" t="s">
         <v>88</v>
       </c>
@@ -29806,7 +29802,7 @@
       <c r="A182" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B182" s="69"/>
+      <c r="B182" s="71"/>
       <c r="C182" s="11" t="s">
         <v>89</v>
       </c>
@@ -29840,7 +29836,7 @@
       <c r="A183" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B183" s="69"/>
+      <c r="B183" s="71"/>
       <c r="C183" s="11" t="s">
         <v>90</v>
       </c>
@@ -29876,7 +29872,7 @@
       <c r="A184" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B184" s="69"/>
+      <c r="B184" s="71"/>
       <c r="C184" s="11" t="s">
         <v>91</v>
       </c>
@@ -29910,7 +29906,7 @@
       <c r="A185" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B185" s="69"/>
+      <c r="B185" s="71"/>
       <c r="C185" s="11" t="s">
         <v>99</v>
       </c>
@@ -29944,7 +29940,7 @@
       <c r="A186" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B186" s="69"/>
+      <c r="B186" s="71"/>
       <c r="C186" s="11" t="s">
         <v>102</v>
       </c>
@@ -29978,7 +29974,7 @@
       <c r="A187" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B187" s="69"/>
+      <c r="B187" s="71"/>
       <c r="C187" s="11" t="s">
         <v>103</v>
       </c>
@@ -30012,7 +30008,7 @@
       <c r="A188" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B188" s="69"/>
+      <c r="B188" s="71"/>
       <c r="C188" s="11" t="s">
         <v>104</v>
       </c>
@@ -30046,7 +30042,7 @@
       <c r="A189" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B189" s="69"/>
+      <c r="B189" s="71"/>
       <c r="C189" s="11" t="s">
         <v>105</v>
       </c>
@@ -30080,7 +30076,7 @@
       <c r="A190" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B190" s="69"/>
+      <c r="B190" s="71"/>
       <c r="C190" s="11" t="s">
         <v>107</v>
       </c>
@@ -30114,7 +30110,7 @@
       <c r="A191" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B191" s="69"/>
+      <c r="B191" s="71"/>
       <c r="C191" s="11" t="s">
         <v>111</v>
       </c>
@@ -30148,7 +30144,7 @@
       <c r="A192" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B192" s="69"/>
+      <c r="B192" s="71"/>
       <c r="C192" s="11" t="s">
         <v>113</v>
       </c>
@@ -30182,7 +30178,7 @@
       <c r="A193" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B193" s="69"/>
+      <c r="B193" s="71"/>
       <c r="C193" s="11" t="s">
         <v>114</v>
       </c>
@@ -30216,7 +30212,7 @@
       <c r="A194" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B194" s="69"/>
+      <c r="B194" s="71"/>
       <c r="C194" s="11" t="s">
         <v>115</v>
       </c>
@@ -30250,7 +30246,7 @@
       <c r="A195" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B195" s="69"/>
+      <c r="B195" s="71"/>
       <c r="C195" s="11" t="s">
         <v>116</v>
       </c>
@@ -30286,7 +30282,7 @@
       <c r="A196" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B196" s="70"/>
+      <c r="B196" s="72"/>
       <c r="C196" s="11" t="s">
         <v>117</v>
       </c>
@@ -30322,7 +30318,7 @@
       <c r="A197" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B197" s="85" t="s">
+      <c r="B197" s="73" t="s">
         <v>223</v>
       </c>
       <c r="C197" s="11" t="s">
@@ -30360,7 +30356,7 @@
       <c r="A198" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B198" s="66"/>
+      <c r="B198" s="74"/>
       <c r="C198" s="11" t="s">
         <v>5</v>
       </c>
@@ -30396,7 +30392,7 @@
       <c r="A199" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B199" s="66"/>
+      <c r="B199" s="74"/>
       <c r="C199" s="11" t="s">
         <v>26</v>
       </c>
@@ -30430,7 +30426,7 @@
       <c r="A200" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B200" s="66"/>
+      <c r="B200" s="74"/>
       <c r="C200" s="11" t="s">
         <v>6</v>
       </c>
@@ -30464,7 +30460,7 @@
       <c r="A201" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B201" s="66"/>
+      <c r="B201" s="74"/>
       <c r="C201" s="11" t="s">
         <v>27</v>
       </c>
@@ -30498,7 +30494,7 @@
       <c r="A202" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B202" s="66"/>
+      <c r="B202" s="74"/>
       <c r="C202" s="11" t="s">
         <v>15</v>
       </c>
@@ -30534,7 +30530,7 @@
       <c r="A203" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B203" s="66"/>
+      <c r="B203" s="74"/>
       <c r="C203" s="11" t="s">
         <v>28</v>
       </c>
@@ -30568,7 +30564,7 @@
       <c r="A204" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B204" s="66"/>
+      <c r="B204" s="74"/>
       <c r="C204" s="11" t="s">
         <v>8</v>
       </c>
@@ -30604,7 +30600,7 @@
       <c r="A205" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B205" s="66"/>
+      <c r="B205" s="74"/>
       <c r="C205" s="11" t="s">
         <v>29</v>
       </c>
@@ -30638,7 +30634,7 @@
       <c r="A206" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B206" s="66"/>
+      <c r="B206" s="74"/>
       <c r="C206" s="11" t="s">
         <v>30</v>
       </c>
@@ -30674,7 +30670,7 @@
       <c r="A207" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B207" s="66"/>
+      <c r="B207" s="74"/>
       <c r="C207" s="11" t="s">
         <v>31</v>
       </c>
@@ -30708,7 +30704,7 @@
       <c r="A208" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B208" s="66"/>
+      <c r="B208" s="74"/>
       <c r="C208" s="11" t="s">
         <v>32</v>
       </c>
@@ -30744,7 +30740,7 @@
       <c r="A209" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B209" s="66"/>
+      <c r="B209" s="74"/>
       <c r="C209" s="11" t="s">
         <v>33</v>
       </c>
@@ -30778,7 +30774,7 @@
       <c r="A210" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B210" s="66"/>
+      <c r="B210" s="74"/>
       <c r="C210" s="11" t="s">
         <v>48</v>
       </c>
@@ -30814,7 +30810,7 @@
       <c r="A211" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B211" s="66"/>
+      <c r="B211" s="74"/>
       <c r="C211" s="11" t="s">
         <v>49</v>
       </c>
@@ -30848,7 +30844,7 @@
       <c r="A212" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B212" s="66"/>
+      <c r="B212" s="74"/>
       <c r="C212" s="11" t="s">
         <v>50</v>
       </c>
@@ -30884,7 +30880,7 @@
       <c r="A213" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B213" s="66"/>
+      <c r="B213" s="74"/>
       <c r="C213" s="11" t="s">
         <v>51</v>
       </c>
@@ -30918,7 +30914,7 @@
       <c r="A214" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B214" s="66"/>
+      <c r="B214" s="74"/>
       <c r="C214" s="11" t="s">
         <v>52</v>
       </c>
@@ -30952,7 +30948,7 @@
       <c r="A215" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B215" s="66"/>
+      <c r="B215" s="74"/>
       <c r="C215" s="11" t="s">
         <v>53</v>
       </c>
@@ -30986,7 +30982,7 @@
       <c r="A216" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B216" s="66"/>
+      <c r="B216" s="74"/>
       <c r="C216" s="11" t="s">
         <v>54</v>
       </c>
@@ -31020,7 +31016,7 @@
       <c r="A217" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B217" s="66"/>
+      <c r="B217" s="74"/>
       <c r="C217" s="11" t="s">
         <v>55</v>
       </c>
@@ -31054,7 +31050,7 @@
       <c r="A218" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B218" s="66"/>
+      <c r="B218" s="74"/>
       <c r="C218" s="11" t="s">
         <v>56</v>
       </c>
@@ -31088,7 +31084,7 @@
       <c r="A219" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B219" s="66"/>
+      <c r="B219" s="74"/>
       <c r="C219" s="11" t="s">
         <v>57</v>
       </c>
@@ -31122,7 +31118,7 @@
       <c r="A220" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B220" s="66"/>
+      <c r="B220" s="74"/>
       <c r="C220" s="11" t="s">
         <v>84</v>
       </c>
@@ -31156,7 +31152,7 @@
       <c r="A221" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B221" s="66"/>
+      <c r="B221" s="74"/>
       <c r="C221" s="11" t="s">
         <v>86</v>
       </c>
@@ -31190,7 +31186,7 @@
       <c r="A222" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B222" s="66"/>
+      <c r="B222" s="74"/>
       <c r="C222" s="11" t="s">
         <v>87</v>
       </c>
@@ -31224,7 +31220,7 @@
       <c r="A223" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B223" s="66"/>
+      <c r="B223" s="74"/>
       <c r="C223" s="11" t="s">
         <v>88</v>
       </c>
@@ -31258,7 +31254,7 @@
       <c r="A224" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B224" s="66"/>
+      <c r="B224" s="74"/>
       <c r="C224" s="11" t="s">
         <v>89</v>
       </c>
@@ -31292,7 +31288,7 @@
       <c r="A225" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B225" s="66"/>
+      <c r="B225" s="74"/>
       <c r="C225" s="11" t="s">
         <v>90</v>
       </c>
@@ -31326,7 +31322,7 @@
       <c r="A226" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B226" s="66"/>
+      <c r="B226" s="74"/>
       <c r="C226" s="11" t="s">
         <v>91</v>
       </c>
@@ -31362,7 +31358,7 @@
       <c r="A227" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B227" s="66"/>
+      <c r="B227" s="74"/>
       <c r="C227" s="11" t="s">
         <v>99</v>
       </c>
@@ -31396,7 +31392,7 @@
       <c r="A228" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B228" s="66"/>
+      <c r="B228" s="74"/>
       <c r="C228" s="11" t="s">
         <v>102</v>
       </c>
@@ -31432,7 +31428,7 @@
       <c r="A229" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B229" s="84" t="s">
+      <c r="B229" s="70" t="s">
         <v>224</v>
       </c>
       <c r="C229" s="15">
@@ -31470,7 +31466,7 @@
       <c r="A230" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B230" s="84"/>
+      <c r="B230" s="70"/>
       <c r="C230" s="23">
         <v>2</v>
       </c>
@@ -31504,7 +31500,7 @@
       <c r="A231" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B231" s="69"/>
+      <c r="B231" s="71"/>
       <c r="C231" s="15">
         <v>3</v>
       </c>
@@ -31538,7 +31534,7 @@
       <c r="A232" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B232" s="69"/>
+      <c r="B232" s="71"/>
       <c r="C232" s="23">
         <v>4</v>
       </c>
@@ -31572,7 +31568,7 @@
       <c r="A233" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B233" s="69"/>
+      <c r="B233" s="71"/>
       <c r="C233" s="15">
         <v>5</v>
       </c>
@@ -31606,7 +31602,7 @@
       <c r="A234" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B234" s="69"/>
+      <c r="B234" s="71"/>
       <c r="C234" s="23">
         <v>6</v>
       </c>
@@ -31642,7 +31638,7 @@
       <c r="A235" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B235" s="69"/>
+      <c r="B235" s="71"/>
       <c r="C235" s="15">
         <v>7</v>
       </c>
@@ -31676,7 +31672,7 @@
       <c r="A236" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B236" s="69"/>
+      <c r="B236" s="71"/>
       <c r="C236" s="23">
         <v>8</v>
       </c>
@@ -31712,7 +31708,7 @@
       <c r="A237" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B237" s="69"/>
+      <c r="B237" s="71"/>
       <c r="C237" s="15">
         <v>9</v>
       </c>
@@ -31746,7 +31742,7 @@
       <c r="A238" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B238" s="69"/>
+      <c r="B238" s="71"/>
       <c r="C238" s="23">
         <v>10</v>
       </c>
@@ -31782,7 +31778,7 @@
       <c r="A239" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B239" s="69"/>
+      <c r="B239" s="71"/>
       <c r="C239" s="15">
         <v>11</v>
       </c>
@@ -31816,7 +31812,7 @@
       <c r="A240" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B240" s="69"/>
+      <c r="B240" s="71"/>
       <c r="C240" s="23">
         <v>12</v>
       </c>
@@ -31852,7 +31848,7 @@
       <c r="A241" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B241" s="69"/>
+      <c r="B241" s="71"/>
       <c r="C241" s="15">
         <v>13</v>
       </c>
@@ -31886,7 +31882,7 @@
       <c r="A242" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B242" s="69"/>
+      <c r="B242" s="71"/>
       <c r="C242" s="23">
         <v>14</v>
       </c>
@@ -31922,7 +31918,7 @@
       <c r="A243" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B243" s="69"/>
+      <c r="B243" s="71"/>
       <c r="C243" s="15">
         <v>15</v>
       </c>
@@ -31956,7 +31952,7 @@
       <c r="A244" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B244" s="69"/>
+      <c r="B244" s="71"/>
       <c r="C244" s="23">
         <v>16</v>
       </c>
@@ -31992,7 +31988,7 @@
       <c r="A245" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B245" s="69"/>
+      <c r="B245" s="71"/>
       <c r="C245" s="15">
         <v>17</v>
       </c>
@@ -32028,7 +32024,7 @@
       <c r="A246" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B246" s="69"/>
+      <c r="B246" s="71"/>
       <c r="C246" s="23">
         <v>18</v>
       </c>
@@ -32062,7 +32058,7 @@
       <c r="A247" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B247" s="69"/>
+      <c r="B247" s="71"/>
       <c r="C247" s="15">
         <v>19</v>
       </c>
@@ -32098,7 +32094,7 @@
       <c r="A248" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B248" s="69"/>
+      <c r="B248" s="71"/>
       <c r="C248" s="23">
         <v>20</v>
       </c>
@@ -32132,7 +32128,7 @@
       <c r="A249" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B249" s="69"/>
+      <c r="B249" s="71"/>
       <c r="C249" s="15">
         <v>21</v>
       </c>
@@ -32166,7 +32162,7 @@
       <c r="A250" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B250" s="69"/>
+      <c r="B250" s="71"/>
       <c r="C250" s="23">
         <v>22</v>
       </c>
@@ -32200,7 +32196,7 @@
       <c r="A251" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B251" s="69"/>
+      <c r="B251" s="71"/>
       <c r="C251" s="15">
         <v>23</v>
       </c>
@@ -32234,7 +32230,7 @@
       <c r="A252" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B252" s="69"/>
+      <c r="B252" s="71"/>
       <c r="C252" s="23">
         <v>24</v>
       </c>
@@ -32268,7 +32264,7 @@
       <c r="A253" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B253" s="69"/>
+      <c r="B253" s="71"/>
       <c r="C253" s="15">
         <v>25</v>
       </c>
@@ -32302,7 +32298,7 @@
       <c r="A254" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B254" s="69"/>
+      <c r="B254" s="71"/>
       <c r="C254" s="23">
         <v>26</v>
       </c>
@@ -32336,7 +32332,7 @@
       <c r="A255" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B255" s="69"/>
+      <c r="B255" s="71"/>
       <c r="C255" s="15">
         <v>27</v>
       </c>
@@ -32370,7 +32366,7 @@
       <c r="A256" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B256" s="69"/>
+      <c r="B256" s="71"/>
       <c r="C256" s="23">
         <v>28</v>
       </c>
@@ -32406,7 +32402,7 @@
       <c r="A257" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B257" s="69"/>
+      <c r="B257" s="71"/>
       <c r="C257" s="15">
         <v>29</v>
       </c>
@@ -32440,7 +32436,7 @@
       <c r="A258" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B258" s="69"/>
+      <c r="B258" s="71"/>
       <c r="C258" s="23">
         <v>30</v>
       </c>
@@ -32476,7 +32472,7 @@
       <c r="A259" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B259" s="69"/>
+      <c r="B259" s="71"/>
       <c r="C259" s="15">
         <v>31</v>
       </c>
@@ -32512,7 +32508,7 @@
       <c r="A260" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B260" s="69"/>
+      <c r="B260" s="71"/>
       <c r="C260" s="23">
         <v>32</v>
       </c>
@@ -32546,7 +32542,7 @@
       <c r="A261" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B261" s="69"/>
+      <c r="B261" s="71"/>
       <c r="C261" s="15">
         <v>33</v>
       </c>
@@ -32582,7 +32578,7 @@
       <c r="A262" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B262" s="70"/>
+      <c r="B262" s="72"/>
       <c r="C262" s="23">
         <v>34</v>
       </c>
@@ -32618,7 +32614,7 @@
       <c r="A263" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B263" s="65" t="s">
+      <c r="B263" s="75" t="s">
         <v>135</v>
       </c>
       <c r="C263" s="23" t="s">
@@ -32656,7 +32652,7 @@
       <c r="A264" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B264" s="66"/>
+      <c r="B264" s="74"/>
       <c r="C264" s="23" t="s">
         <v>5</v>
       </c>
@@ -32692,7 +32688,7 @@
       <c r="A265" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B265" s="66"/>
+      <c r="B265" s="74"/>
       <c r="C265" s="23" t="s">
         <v>26</v>
       </c>
@@ -32726,7 +32722,7 @@
       <c r="A266" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B266" s="66"/>
+      <c r="B266" s="74"/>
       <c r="C266" s="23" t="s">
         <v>7</v>
       </c>
@@ -32760,7 +32756,7 @@
       <c r="A267" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B267" s="66"/>
+      <c r="B267" s="74"/>
       <c r="C267" s="23" t="s">
         <v>6</v>
       </c>
@@ -32794,7 +32790,7 @@
       <c r="A268" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B268" s="66"/>
+      <c r="B268" s="74"/>
       <c r="C268" s="23" t="s">
         <v>27</v>
       </c>
@@ -32830,7 +32826,7 @@
       <c r="A269" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B269" s="66"/>
+      <c r="B269" s="74"/>
       <c r="C269" s="23" t="s">
         <v>15</v>
       </c>
@@ -32864,7 +32860,7 @@
       <c r="A270" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B270" s="66"/>
+      <c r="B270" s="74"/>
       <c r="C270" s="23" t="s">
         <v>28</v>
       </c>
@@ -32900,7 +32896,7 @@
       <c r="A271" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B271" s="66"/>
+      <c r="B271" s="74"/>
       <c r="C271" s="23" t="s">
         <v>8</v>
       </c>
@@ -32934,7 +32930,7 @@
       <c r="A272" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B272" s="66"/>
+      <c r="B272" s="74"/>
       <c r="C272" s="23" t="s">
         <v>29</v>
       </c>
@@ -32970,7 +32966,7 @@
       <c r="A273" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B273" s="66"/>
+      <c r="B273" s="74"/>
       <c r="C273" s="23" t="s">
         <v>30</v>
       </c>
@@ -33004,7 +33000,7 @@
       <c r="A274" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B274" s="66"/>
+      <c r="B274" s="74"/>
       <c r="C274" s="23" t="s">
         <v>31</v>
       </c>
@@ -33040,7 +33036,7 @@
       <c r="A275" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B275" s="66"/>
+      <c r="B275" s="74"/>
       <c r="C275" s="23" t="s">
         <v>32</v>
       </c>
@@ -33074,7 +33070,7 @@
       <c r="A276" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B276" s="66"/>
+      <c r="B276" s="74"/>
       <c r="C276" s="23" t="s">
         <v>33</v>
       </c>
@@ -33110,7 +33106,7 @@
       <c r="A277" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B277" s="66"/>
+      <c r="B277" s="74"/>
       <c r="C277" s="23" t="s">
         <v>48</v>
       </c>
@@ -33144,7 +33140,7 @@
       <c r="A278" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B278" s="66"/>
+      <c r="B278" s="74"/>
       <c r="C278" s="23" t="s">
         <v>49</v>
       </c>
@@ -33180,7 +33176,7 @@
       <c r="A279" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B279" s="66"/>
+      <c r="B279" s="74"/>
       <c r="C279" s="23" t="s">
         <v>50</v>
       </c>
@@ -33214,7 +33210,7 @@
       <c r="A280" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B280" s="66"/>
+      <c r="B280" s="74"/>
       <c r="C280" s="23" t="s">
         <v>51</v>
       </c>
@@ -33250,7 +33246,7 @@
       <c r="A281" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B281" s="66"/>
+      <c r="B281" s="74"/>
       <c r="C281" s="23" t="s">
         <v>52</v>
       </c>
@@ -33284,7 +33280,7 @@
       <c r="A282" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B282" s="66"/>
+      <c r="B282" s="74"/>
       <c r="C282" s="23" t="s">
         <v>53</v>
       </c>
@@ -33320,7 +33316,7 @@
       <c r="A283" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B283" s="66"/>
+      <c r="B283" s="74"/>
       <c r="C283" s="23" t="s">
         <v>54</v>
       </c>
@@ -33354,7 +33350,7 @@
       <c r="A284" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B284" s="66"/>
+      <c r="B284" s="74"/>
       <c r="C284" s="23" t="s">
         <v>56</v>
       </c>
@@ -33390,7 +33386,7 @@
       <c r="A285" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B285" s="66"/>
+      <c r="B285" s="74"/>
       <c r="C285" s="23" t="s">
         <v>57</v>
       </c>
@@ -33424,7 +33420,7 @@
       <c r="A286" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B286" s="66"/>
+      <c r="B286" s="74"/>
       <c r="C286" s="23" t="s">
         <v>84</v>
       </c>
@@ -33458,7 +33454,7 @@
       <c r="A287" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B287" s="66"/>
+      <c r="B287" s="74"/>
       <c r="C287" s="23" t="s">
         <v>86</v>
       </c>
@@ -33492,7 +33488,7 @@
       <c r="A288" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B288" s="66"/>
+      <c r="B288" s="74"/>
       <c r="C288" s="23" t="s">
         <v>87</v>
       </c>
@@ -33526,7 +33522,7 @@
       <c r="A289" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B289" s="66"/>
+      <c r="B289" s="74"/>
       <c r="C289" s="23" t="s">
         <v>88</v>
       </c>
@@ -33562,7 +33558,7 @@
       <c r="A290" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B290" s="69"/>
+      <c r="B290" s="71"/>
       <c r="C290" s="13" t="s">
         <v>25</v>
       </c>
@@ -33598,7 +33594,7 @@
       <c r="A291" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B291" s="69"/>
+      <c r="B291" s="71"/>
       <c r="C291" s="13" t="s">
         <v>5</v>
       </c>
@@ -33632,7 +33628,7 @@
       <c r="A292" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B292" s="69"/>
+      <c r="B292" s="71"/>
       <c r="C292" s="13" t="s">
         <v>7</v>
       </c>
@@ -33666,7 +33662,7 @@
       <c r="A293" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B293" s="69"/>
+      <c r="B293" s="71"/>
       <c r="C293" s="13" t="s">
         <v>6</v>
       </c>
@@ -33700,7 +33696,7 @@
       <c r="A294" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B294" s="69"/>
+      <c r="B294" s="71"/>
       <c r="C294" s="13" t="s">
         <v>27</v>
       </c>
@@ -33734,7 +33730,7 @@
       <c r="A295" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B295" s="69"/>
+      <c r="B295" s="71"/>
       <c r="C295" s="13" t="s">
         <v>15</v>
       </c>
@@ -33770,7 +33766,7 @@
       <c r="A296" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B296" s="69"/>
+      <c r="B296" s="71"/>
       <c r="C296" s="13" t="s">
         <v>28</v>
       </c>
@@ -33804,7 +33800,7 @@
       <c r="A297" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B297" s="69"/>
+      <c r="B297" s="71"/>
       <c r="C297" s="13" t="s">
         <v>8</v>
       </c>
@@ -33840,7 +33836,7 @@
       <c r="A298" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B298" s="69"/>
+      <c r="B298" s="71"/>
       <c r="C298" s="13" t="s">
         <v>29</v>
       </c>
@@ -33874,7 +33870,7 @@
       <c r="A299" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B299" s="69"/>
+      <c r="B299" s="71"/>
       <c r="C299" s="13" t="s">
         <v>30</v>
       </c>
@@ -33910,7 +33906,7 @@
       <c r="A300" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B300" s="69"/>
+      <c r="B300" s="71"/>
       <c r="C300" s="13" t="s">
         <v>31</v>
       </c>
@@ -33944,7 +33940,7 @@
       <c r="A301" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B301" s="69"/>
+      <c r="B301" s="71"/>
       <c r="C301" s="13" t="s">
         <v>32</v>
       </c>
@@ -33980,7 +33976,7 @@
       <c r="A302" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B302" s="69"/>
+      <c r="B302" s="71"/>
       <c r="C302" s="13" t="s">
         <v>33</v>
       </c>
@@ -34014,7 +34010,7 @@
       <c r="A303" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B303" s="69"/>
+      <c r="B303" s="71"/>
       <c r="C303" s="13" t="s">
         <v>48</v>
       </c>
@@ -34050,7 +34046,7 @@
       <c r="A304" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B304" s="69"/>
+      <c r="B304" s="71"/>
       <c r="C304" s="13" t="s">
         <v>49</v>
       </c>
@@ -34084,7 +34080,7 @@
       <c r="A305" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B305" s="69"/>
+      <c r="B305" s="71"/>
       <c r="C305" s="13" t="s">
         <v>50</v>
       </c>
@@ -34120,7 +34116,7 @@
       <c r="A306" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B306" s="69"/>
+      <c r="B306" s="71"/>
       <c r="C306" s="13" t="s">
         <v>51</v>
       </c>
@@ -34156,7 +34152,7 @@
       <c r="A307" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B307" s="69"/>
+      <c r="B307" s="71"/>
       <c r="C307" s="13" t="s">
         <v>52</v>
       </c>
@@ -34190,7 +34186,7 @@
       <c r="A308" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B308" s="69"/>
+      <c r="B308" s="71"/>
       <c r="C308" s="13" t="s">
         <v>53</v>
       </c>
@@ -34226,7 +34222,7 @@
       <c r="A309" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B309" s="69"/>
+      <c r="B309" s="71"/>
       <c r="C309" s="13" t="s">
         <v>54</v>
       </c>
@@ -34260,7 +34256,7 @@
       <c r="A310" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B310" s="69"/>
+      <c r="B310" s="71"/>
       <c r="C310" s="13" t="s">
         <v>55</v>
       </c>
@@ -34294,7 +34290,7 @@
       <c r="A311" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B311" s="69"/>
+      <c r="B311" s="71"/>
       <c r="C311" s="13" t="s">
         <v>56</v>
       </c>
@@ -34328,7 +34324,7 @@
       <c r="A312" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B312" s="69"/>
+      <c r="B312" s="71"/>
       <c r="C312" s="13" t="s">
         <v>57</v>
       </c>
@@ -34362,7 +34358,7 @@
       <c r="A313" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B313" s="69"/>
+      <c r="B313" s="71"/>
       <c r="C313" s="13" t="s">
         <v>84</v>
       </c>
@@ -34396,7 +34392,7 @@
       <c r="A314" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B314" s="69"/>
+      <c r="B314" s="71"/>
       <c r="C314" s="13" t="s">
         <v>86</v>
       </c>
@@ -34430,7 +34426,7 @@
       <c r="A315" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B315" s="69"/>
+      <c r="B315" s="71"/>
       <c r="C315" s="13" t="s">
         <v>87</v>
       </c>
@@ -34464,7 +34460,7 @@
       <c r="A316" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B316" s="69"/>
+      <c r="B316" s="71"/>
       <c r="C316" s="13" t="s">
         <v>88</v>
       </c>
@@ -34498,7 +34494,7 @@
       <c r="A317" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B317" s="69"/>
+      <c r="B317" s="71"/>
       <c r="C317" s="13" t="s">
         <v>89</v>
       </c>
@@ -34534,7 +34530,7 @@
       <c r="A318" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B318" s="69"/>
+      <c r="B318" s="71"/>
       <c r="C318" s="13" t="s">
         <v>90</v>
       </c>
@@ -34568,7 +34564,7 @@
       <c r="A319" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B319" s="69"/>
+      <c r="B319" s="71"/>
       <c r="C319" s="13" t="s">
         <v>91</v>
       </c>
@@ -34602,7 +34598,7 @@
       <c r="A320" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B320" s="69"/>
+      <c r="B320" s="71"/>
       <c r="C320" s="13" t="s">
         <v>99</v>
       </c>
@@ -34636,7 +34632,7 @@
       <c r="A321" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B321" s="69"/>
+      <c r="B321" s="71"/>
       <c r="C321" s="13" t="s">
         <v>102</v>
       </c>
@@ -34670,7 +34666,7 @@
       <c r="A322" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B322" s="70"/>
+      <c r="B322" s="72"/>
       <c r="C322" s="13" t="s">
         <v>103</v>
       </c>
@@ -34706,7 +34702,7 @@
       <c r="A323" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B323" s="71"/>
+      <c r="B323" s="78"/>
       <c r="C323" s="13" t="s">
         <v>25</v>
       </c>
@@ -34742,7 +34738,7 @@
       <c r="A324" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B324" s="72"/>
+      <c r="B324" s="79"/>
       <c r="C324" s="13" t="s">
         <v>5</v>
       </c>
@@ -34778,7 +34774,7 @@
       <c r="A325" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B325" s="72"/>
+      <c r="B325" s="79"/>
       <c r="C325" s="13" t="s">
         <v>26</v>
       </c>
@@ -34812,7 +34808,7 @@
       <c r="A326" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B326" s="72"/>
+      <c r="B326" s="79"/>
       <c r="C326" s="13" t="s">
         <v>7</v>
       </c>
@@ -34846,7 +34842,7 @@
       <c r="A327" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B327" s="72"/>
+      <c r="B327" s="79"/>
       <c r="C327" s="13" t="s">
         <v>6</v>
       </c>
@@ -34880,7 +34876,7 @@
       <c r="A328" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B328" s="72"/>
+      <c r="B328" s="79"/>
       <c r="C328" s="13" t="s">
         <v>27</v>
       </c>
@@ -34916,7 +34912,7 @@
       <c r="A329" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B329" s="72"/>
+      <c r="B329" s="79"/>
       <c r="C329" s="13" t="s">
         <v>15</v>
       </c>
@@ -34950,7 +34946,7 @@
       <c r="A330" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B330" s="72"/>
+      <c r="B330" s="79"/>
       <c r="C330" s="13" t="s">
         <v>28</v>
       </c>
@@ -34986,7 +34982,7 @@
       <c r="A331" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B331" s="72"/>
+      <c r="B331" s="79"/>
       <c r="C331" s="13" t="s">
         <v>8</v>
       </c>
@@ -35020,7 +35016,7 @@
       <c r="A332" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B332" s="72"/>
+      <c r="B332" s="79"/>
       <c r="C332" s="13" t="s">
         <v>29</v>
       </c>
@@ -35056,7 +35052,7 @@
       <c r="A333" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B333" s="72"/>
+      <c r="B333" s="79"/>
       <c r="C333" s="13" t="s">
         <v>30</v>
       </c>
@@ -35090,7 +35086,7 @@
       <c r="A334" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B334" s="72"/>
+      <c r="B334" s="79"/>
       <c r="C334" s="13" t="s">
         <v>31</v>
       </c>
@@ -35126,7 +35122,7 @@
       <c r="A335" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B335" s="72"/>
+      <c r="B335" s="79"/>
       <c r="C335" s="13" t="s">
         <v>32</v>
       </c>
@@ -35160,7 +35156,7 @@
       <c r="A336" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B336" s="72"/>
+      <c r="B336" s="79"/>
       <c r="C336" s="13" t="s">
         <v>33</v>
       </c>
@@ -35196,7 +35192,7 @@
       <c r="A337" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B337" s="72"/>
+      <c r="B337" s="79"/>
       <c r="C337" s="13" t="s">
         <v>48</v>
       </c>
@@ -35230,7 +35226,7 @@
       <c r="A338" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B338" s="72"/>
+      <c r="B338" s="79"/>
       <c r="C338" s="13" t="s">
         <v>49</v>
       </c>
@@ -35266,7 +35262,7 @@
       <c r="A339" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B339" s="72"/>
+      <c r="B339" s="79"/>
       <c r="C339" s="13" t="s">
         <v>50</v>
       </c>
@@ -35300,7 +35296,7 @@
       <c r="A340" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B340" s="72"/>
+      <c r="B340" s="79"/>
       <c r="C340" s="13" t="s">
         <v>51</v>
       </c>
@@ -35336,7 +35332,7 @@
       <c r="A341" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B341" s="72"/>
+      <c r="B341" s="79"/>
       <c r="C341" s="13" t="s">
         <v>52</v>
       </c>
@@ -35370,7 +35366,7 @@
       <c r="A342" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B342" s="72"/>
+      <c r="B342" s="79"/>
       <c r="C342" s="13" t="s">
         <v>53</v>
       </c>
@@ -35406,7 +35402,7 @@
       <c r="A343" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B343" s="72"/>
+      <c r="B343" s="79"/>
       <c r="C343" s="13" t="s">
         <v>54</v>
       </c>
@@ -35440,7 +35436,7 @@
       <c r="A344" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B344" s="72"/>
+      <c r="B344" s="79"/>
       <c r="C344" s="13" t="s">
         <v>55</v>
       </c>
@@ -35473,7 +35469,7 @@
       <c r="A345" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B345" s="72"/>
+      <c r="B345" s="79"/>
       <c r="C345" s="13" t="s">
         <v>56</v>
       </c>
@@ -35507,7 +35503,7 @@
       <c r="A346" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B346" s="72"/>
+      <c r="B346" s="79"/>
       <c r="C346" s="13" t="s">
         <v>57</v>
       </c>
@@ -35541,7 +35537,7 @@
       <c r="A347" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B347" s="72"/>
+      <c r="B347" s="79"/>
       <c r="C347" s="13" t="s">
         <v>84</v>
       </c>
@@ -35575,7 +35571,7 @@
       <c r="A348" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B348" s="72"/>
+      <c r="B348" s="79"/>
       <c r="C348" s="13" t="s">
         <v>86</v>
       </c>
@@ -35609,7 +35605,7 @@
       <c r="A349" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B349" s="72"/>
+      <c r="B349" s="79"/>
       <c r="C349" s="13" t="s">
         <v>87</v>
       </c>
@@ -35643,7 +35639,7 @@
       <c r="A350" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B350" s="72"/>
+      <c r="B350" s="79"/>
       <c r="C350" s="13" t="s">
         <v>88</v>
       </c>
@@ -35677,7 +35673,7 @@
       <c r="A351" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B351" s="72"/>
+      <c r="B351" s="79"/>
       <c r="C351" s="13" t="s">
         <v>89</v>
       </c>
@@ -35711,7 +35707,7 @@
       <c r="A352" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B352" s="72"/>
+      <c r="B352" s="79"/>
       <c r="C352" s="13" t="s">
         <v>90</v>
       </c>
@@ -35745,7 +35741,7 @@
       <c r="A353" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B353" s="72"/>
+      <c r="B353" s="79"/>
       <c r="C353" s="13" t="s">
         <v>91</v>
       </c>
@@ -35779,7 +35775,7 @@
       <c r="A354" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B354" s="72"/>
+      <c r="B354" s="79"/>
       <c r="C354" s="13" t="s">
         <v>99</v>
       </c>
@@ -35813,7 +35809,7 @@
       <c r="A355" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B355" s="72"/>
+      <c r="B355" s="79"/>
       <c r="C355" s="13" t="s">
         <v>102</v>
       </c>
@@ -35847,7 +35843,7 @@
       <c r="A356" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B356" s="72"/>
+      <c r="B356" s="79"/>
       <c r="C356" s="13" t="s">
         <v>103</v>
       </c>
@@ -35881,7 +35877,7 @@
       <c r="A357" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B357" s="72"/>
+      <c r="B357" s="79"/>
       <c r="C357" s="13" t="s">
         <v>104</v>
       </c>
@@ -35917,7 +35913,7 @@
       <c r="A358" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B358" s="72"/>
+      <c r="B358" s="79"/>
       <c r="C358" s="13" t="s">
         <v>105</v>
       </c>
@@ -35951,7 +35947,7 @@
       <c r="A359" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B359" s="72"/>
+      <c r="B359" s="79"/>
       <c r="C359" s="13" t="s">
         <v>107</v>
       </c>
@@ -35985,7 +35981,7 @@
       <c r="A360" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B360" s="72"/>
+      <c r="B360" s="79"/>
       <c r="C360" s="13" t="s">
         <v>111</v>
       </c>
@@ -36019,7 +36015,7 @@
       <c r="A361" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B361" s="72"/>
+      <c r="B361" s="79"/>
       <c r="C361" s="13" t="s">
         <v>113</v>
       </c>
@@ -36053,7 +36049,7 @@
       <c r="A362" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B362" s="72"/>
+      <c r="B362" s="79"/>
       <c r="C362" s="13" t="s">
         <v>114</v>
       </c>
@@ -36087,7 +36083,7 @@
       <c r="A363" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B363" s="72"/>
+      <c r="B363" s="79"/>
       <c r="C363" s="13" t="s">
         <v>115</v>
       </c>
@@ -36121,7 +36117,7 @@
       <c r="A364" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B364" s="72"/>
+      <c r="B364" s="79"/>
       <c r="C364" s="13" t="s">
         <v>116</v>
       </c>
@@ -36155,7 +36151,7 @@
       <c r="A365" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B365" s="72"/>
+      <c r="B365" s="79"/>
       <c r="C365" s="13" t="s">
         <v>117</v>
       </c>
@@ -36189,7 +36185,7 @@
       <c r="A366" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B366" s="72"/>
+      <c r="B366" s="79"/>
       <c r="C366" s="13" t="s">
         <v>118</v>
       </c>
@@ -36223,7 +36219,7 @@
       <c r="A367" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B367" s="72"/>
+      <c r="B367" s="79"/>
       <c r="C367" s="13" t="s">
         <v>119</v>
       </c>
@@ -36257,7 +36253,7 @@
       <c r="A368" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B368" s="72"/>
+      <c r="B368" s="79"/>
       <c r="C368" s="13" t="s">
         <v>120</v>
       </c>
@@ -36291,7 +36287,7 @@
       <c r="A369" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B369" s="72"/>
+      <c r="B369" s="79"/>
       <c r="C369" s="13" t="s">
         <v>227</v>
       </c>
@@ -36327,7 +36323,7 @@
       <c r="A370" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B370" s="72"/>
+      <c r="B370" s="79"/>
       <c r="C370" s="13" t="s">
         <v>228</v>
       </c>
@@ -36361,7 +36357,7 @@
       <c r="A371" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B371" s="72"/>
+      <c r="B371" s="79"/>
       <c r="C371" s="13" t="s">
         <v>229</v>
       </c>
@@ -36395,7 +36391,7 @@
       <c r="A372" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B372" s="73"/>
+      <c r="B372" s="80"/>
       <c r="C372" s="13" t="s">
         <v>121</v>
       </c>
@@ -36431,7 +36427,7 @@
       <c r="A373" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B373" s="68"/>
+      <c r="B373" s="77"/>
       <c r="C373" s="11" t="s">
         <v>25</v>
       </c>
@@ -36467,7 +36463,7 @@
       <c r="A374" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B374" s="69"/>
+      <c r="B374" s="71"/>
       <c r="C374" s="11" t="s">
         <v>5</v>
       </c>
@@ -36501,7 +36497,7 @@
       <c r="A375" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B375" s="69"/>
+      <c r="B375" s="71"/>
       <c r="C375" s="11" t="s">
         <v>26</v>
       </c>
@@ -36535,7 +36531,7 @@
       <c r="A376" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B376" s="69"/>
+      <c r="B376" s="71"/>
       <c r="C376" s="11" t="s">
         <v>7</v>
       </c>
@@ -36569,7 +36565,7 @@
       <c r="A377" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B377" s="69"/>
+      <c r="B377" s="71"/>
       <c r="C377" s="11" t="s">
         <v>6</v>
       </c>
@@ -36603,7 +36599,7 @@
       <c r="A378" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B378" s="69"/>
+      <c r="B378" s="71"/>
       <c r="C378" s="11" t="s">
         <v>27</v>
       </c>
@@ -36639,7 +36635,7 @@
       <c r="A379" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B379" s="69"/>
+      <c r="B379" s="71"/>
       <c r="C379" s="11" t="s">
         <v>15</v>
       </c>
@@ -36673,7 +36669,7 @@
       <c r="A380" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B380" s="69"/>
+      <c r="B380" s="71"/>
       <c r="C380" s="11" t="s">
         <v>28</v>
       </c>
@@ -36709,7 +36705,7 @@
       <c r="A381" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B381" s="69"/>
+      <c r="B381" s="71"/>
       <c r="C381" s="11" t="s">
         <v>8</v>
       </c>
@@ -36743,7 +36739,7 @@
       <c r="A382" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B382" s="69"/>
+      <c r="B382" s="71"/>
       <c r="C382" s="11" t="s">
         <v>29</v>
       </c>
@@ -36779,7 +36775,7 @@
       <c r="A383" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B383" s="69"/>
+      <c r="B383" s="71"/>
       <c r="C383" s="11" t="s">
         <v>30</v>
       </c>
@@ -36813,7 +36809,7 @@
       <c r="A384" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B384" s="69"/>
+      <c r="B384" s="71"/>
       <c r="C384" s="11" t="s">
         <v>31</v>
       </c>
@@ -36849,7 +36845,7 @@
       <c r="A385" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B385" s="69"/>
+      <c r="B385" s="71"/>
       <c r="C385" s="11" t="s">
         <v>32</v>
       </c>
@@ -36883,7 +36879,7 @@
       <c r="A386" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B386" s="69"/>
+      <c r="B386" s="71"/>
       <c r="C386" s="11" t="s">
         <v>33</v>
       </c>
@@ -36919,7 +36915,7 @@
       <c r="A387" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B387" s="69"/>
+      <c r="B387" s="71"/>
       <c r="C387" s="11" t="s">
         <v>48</v>
       </c>
@@ -36953,7 +36949,7 @@
       <c r="A388" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B388" s="69"/>
+      <c r="B388" s="71"/>
       <c r="C388" s="11" t="s">
         <v>49</v>
       </c>
@@ -36989,7 +36985,7 @@
       <c r="A389" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B389" s="69"/>
+      <c r="B389" s="71"/>
       <c r="C389" s="11" t="s">
         <v>50</v>
       </c>
@@ -37025,7 +37021,7 @@
       <c r="A390" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B390" s="69"/>
+      <c r="B390" s="71"/>
       <c r="C390" s="11" t="s">
         <v>51</v>
       </c>
@@ -37059,7 +37055,7 @@
       <c r="A391" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B391" s="69"/>
+      <c r="B391" s="71"/>
       <c r="C391" s="11" t="s">
         <v>52</v>
       </c>
@@ -37095,7 +37091,7 @@
       <c r="A392" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B392" s="69"/>
+      <c r="B392" s="71"/>
       <c r="C392" s="11" t="s">
         <v>53</v>
       </c>
@@ -37129,7 +37125,7 @@
       <c r="A393" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B393" s="69"/>
+      <c r="B393" s="71"/>
       <c r="C393" s="11" t="s">
         <v>54</v>
       </c>
@@ -37163,7 +37159,7 @@
       <c r="A394" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B394" s="69"/>
+      <c r="B394" s="71"/>
       <c r="C394" s="11" t="s">
         <v>55</v>
       </c>
@@ -37197,7 +37193,7 @@
       <c r="A395" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B395" s="69"/>
+      <c r="B395" s="71"/>
       <c r="C395" s="11" t="s">
         <v>56</v>
       </c>
@@ -37231,7 +37227,7 @@
       <c r="A396" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B396" s="69"/>
+      <c r="B396" s="71"/>
       <c r="C396" s="11" t="s">
         <v>57</v>
       </c>
@@ -37265,7 +37261,7 @@
       <c r="A397" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B397" s="69"/>
+      <c r="B397" s="71"/>
       <c r="C397" s="11" t="s">
         <v>84</v>
       </c>
@@ -37299,7 +37295,7 @@
       <c r="A398" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B398" s="69"/>
+      <c r="B398" s="71"/>
       <c r="C398" s="11" t="s">
         <v>86</v>
       </c>
@@ -37333,7 +37329,7 @@
       <c r="A399" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B399" s="69"/>
+      <c r="B399" s="71"/>
       <c r="C399" s="11" t="s">
         <v>87</v>
       </c>
@@ -37367,7 +37363,7 @@
       <c r="A400" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B400" s="69"/>
+      <c r="B400" s="71"/>
       <c r="C400" s="11" t="s">
         <v>88</v>
       </c>
@@ -37403,7 +37399,7 @@
       <c r="A401" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B401" s="69"/>
+      <c r="B401" s="71"/>
       <c r="C401" s="11" t="s">
         <v>89</v>
       </c>
@@ -37437,7 +37433,7 @@
       <c r="A402" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B402" s="69"/>
+      <c r="B402" s="71"/>
       <c r="C402" s="11" t="s">
         <v>90</v>
       </c>
@@ -37473,7 +37469,7 @@
       <c r="A403" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B403" s="69"/>
+      <c r="B403" s="71"/>
       <c r="C403" s="11" t="s">
         <v>91</v>
       </c>
@@ -37509,7 +37505,7 @@
       <c r="A404" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B404" s="69"/>
+      <c r="B404" s="71"/>
       <c r="C404" s="11" t="s">
         <v>99</v>
       </c>
@@ -37545,7 +37541,7 @@
       <c r="A405" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B405" s="69"/>
+      <c r="B405" s="71"/>
       <c r="C405" s="11" t="s">
         <v>102</v>
       </c>
@@ -37581,7 +37577,7 @@
       <c r="A406" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B406" s="69"/>
+      <c r="B406" s="71"/>
       <c r="C406" s="11" t="s">
         <v>103</v>
       </c>
@@ -37615,7 +37611,7 @@
       <c r="A407" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B407" s="69"/>
+      <c r="B407" s="71"/>
       <c r="C407" s="11" t="s">
         <v>104</v>
       </c>
@@ -37651,7 +37647,7 @@
       <c r="A408" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B408" s="78" t="s">
+      <c r="B408" s="84" t="s">
         <v>240</v>
       </c>
       <c r="C408" s="14" t="s">
@@ -37689,7 +37685,7 @@
       <c r="A409" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B409" s="76"/>
+      <c r="B409" s="82"/>
       <c r="C409" s="14" t="s">
         <v>5</v>
       </c>
@@ -37725,7 +37721,7 @@
       <c r="A410" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B410" s="76"/>
+      <c r="B410" s="82"/>
       <c r="C410" s="14" t="s">
         <v>26</v>
       </c>
@@ -37759,7 +37755,7 @@
       <c r="A411" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B411" s="76"/>
+      <c r="B411" s="82"/>
       <c r="C411" s="14" t="s">
         <v>7</v>
       </c>
@@ -37793,7 +37789,7 @@
       <c r="A412" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B412" s="76"/>
+      <c r="B412" s="82"/>
       <c r="C412" s="14" t="s">
         <v>6</v>
       </c>
@@ -37827,7 +37823,7 @@
       <c r="A413" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B413" s="76"/>
+      <c r="B413" s="82"/>
       <c r="C413" s="32">
         <v>6</v>
       </c>
@@ -37863,7 +37859,7 @@
       <c r="A414" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B414" s="76"/>
+      <c r="B414" s="82"/>
       <c r="C414" s="32">
         <v>7</v>
       </c>
@@ -37897,7 +37893,7 @@
       <c r="A415" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B415" s="76"/>
+      <c r="B415" s="82"/>
       <c r="C415" s="32">
         <v>8</v>
       </c>
@@ -37933,7 +37929,7 @@
       <c r="A416" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B416" s="76"/>
+      <c r="B416" s="82"/>
       <c r="C416" s="32">
         <v>9</v>
       </c>
@@ -37967,7 +37963,7 @@
       <c r="A417" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B417" s="76"/>
+      <c r="B417" s="82"/>
       <c r="C417" s="32">
         <v>10</v>
       </c>
@@ -38003,7 +37999,7 @@
       <c r="A418" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B418" s="76"/>
+      <c r="B418" s="82"/>
       <c r="C418" s="32">
         <v>11</v>
       </c>
@@ -38037,7 +38033,7 @@
       <c r="A419" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B419" s="76"/>
+      <c r="B419" s="82"/>
       <c r="C419" s="32">
         <v>12</v>
       </c>
@@ -38073,7 +38069,7 @@
       <c r="A420" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B420" s="76"/>
+      <c r="B420" s="82"/>
       <c r="C420" s="32">
         <v>13</v>
       </c>
@@ -38107,7 +38103,7 @@
       <c r="A421" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B421" s="76"/>
+      <c r="B421" s="82"/>
       <c r="C421" s="32">
         <v>14</v>
       </c>
@@ -38143,7 +38139,7 @@
       <c r="A422" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B422" s="76"/>
+      <c r="B422" s="82"/>
       <c r="C422" s="32">
         <v>15</v>
       </c>
@@ -38177,7 +38173,7 @@
       <c r="A423" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B423" s="76"/>
+      <c r="B423" s="82"/>
       <c r="C423" s="32">
         <v>16</v>
       </c>
@@ -38211,7 +38207,7 @@
       <c r="A424" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B424" s="76"/>
+      <c r="B424" s="82"/>
       <c r="C424" s="32">
         <v>17</v>
       </c>
@@ -38245,7 +38241,7 @@
       <c r="A425" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B425" s="76"/>
+      <c r="B425" s="82"/>
       <c r="C425" s="32">
         <v>18</v>
       </c>
@@ -38279,7 +38275,7 @@
       <c r="A426" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B426" s="76"/>
+      <c r="B426" s="82"/>
       <c r="C426" s="32">
         <v>19</v>
       </c>
@@ -38313,7 +38309,7 @@
       <c r="A427" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B427" s="76"/>
+      <c r="B427" s="82"/>
       <c r="C427" s="32">
         <v>20</v>
       </c>
@@ -38347,7 +38343,7 @@
       <c r="A428" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B428" s="76"/>
+      <c r="B428" s="82"/>
       <c r="C428" s="32">
         <v>21</v>
       </c>
@@ -38381,7 +38377,7 @@
       <c r="A429" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B429" s="76"/>
+      <c r="B429" s="82"/>
       <c r="C429" s="32">
         <v>22</v>
       </c>
@@ -38415,7 +38411,7 @@
       <c r="A430" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B430" s="76"/>
+      <c r="B430" s="82"/>
       <c r="C430" s="32">
         <v>23</v>
       </c>
@@ -38449,7 +38445,7 @@
       <c r="A431" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B431" s="76"/>
+      <c r="B431" s="82"/>
       <c r="C431" s="32">
         <v>24</v>
       </c>
@@ -38485,7 +38481,7 @@
       <c r="A432" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B432" s="76"/>
+      <c r="B432" s="82"/>
       <c r="C432" s="32">
         <v>25</v>
       </c>
@@ -38521,7 +38517,7 @@
       <c r="A433" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B433" s="74" t="s">
+      <c r="B433" s="81" t="s">
         <v>241</v>
       </c>
       <c r="C433" s="23" t="s">
@@ -38559,7 +38555,7 @@
       <c r="A434" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B434" s="75"/>
+      <c r="B434" s="68"/>
       <c r="C434" s="23" t="s">
         <v>5</v>
       </c>
@@ -38595,7 +38591,7 @@
       <c r="A435" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B435" s="75"/>
+      <c r="B435" s="68"/>
       <c r="C435" s="23" t="s">
         <v>26</v>
       </c>
@@ -38629,7 +38625,7 @@
       <c r="A436" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B436" s="75"/>
+      <c r="B436" s="68"/>
       <c r="C436" s="23" t="s">
         <v>7</v>
       </c>
@@ -38663,7 +38659,7 @@
       <c r="A437" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B437" s="75"/>
+      <c r="B437" s="68"/>
       <c r="C437" s="23" t="s">
         <v>6</v>
       </c>
@@ -38697,7 +38693,7 @@
       <c r="A438" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B438" s="75"/>
+      <c r="B438" s="68"/>
       <c r="C438" s="23" t="s">
         <v>27</v>
       </c>
@@ -38733,7 +38729,7 @@
       <c r="A439" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B439" s="75"/>
+      <c r="B439" s="68"/>
       <c r="C439" s="23" t="s">
         <v>15</v>
       </c>
@@ -38767,7 +38763,7 @@
       <c r="A440" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B440" s="75"/>
+      <c r="B440" s="68"/>
       <c r="C440" s="23" t="s">
         <v>28</v>
       </c>
@@ -38803,7 +38799,7 @@
       <c r="A441" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B441" s="75"/>
+      <c r="B441" s="68"/>
       <c r="C441" s="23" t="s">
         <v>8</v>
       </c>
@@ -38837,7 +38833,7 @@
       <c r="A442" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B442" s="75"/>
+      <c r="B442" s="68"/>
       <c r="C442" s="23" t="s">
         <v>29</v>
       </c>
@@ -38873,7 +38869,7 @@
       <c r="A443" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B443" s="75"/>
+      <c r="B443" s="68"/>
       <c r="C443" s="23" t="s">
         <v>30</v>
       </c>
@@ -38907,7 +38903,7 @@
       <c r="A444" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B444" s="75"/>
+      <c r="B444" s="68"/>
       <c r="C444" s="23" t="s">
         <v>31</v>
       </c>
@@ -38943,7 +38939,7 @@
       <c r="A445" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B445" s="75"/>
+      <c r="B445" s="68"/>
       <c r="C445" s="23" t="s">
         <v>32</v>
       </c>
@@ -38977,7 +38973,7 @@
       <c r="A446" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B446" s="75"/>
+      <c r="B446" s="68"/>
       <c r="C446" s="23" t="s">
         <v>33</v>
       </c>
@@ -39011,7 +39007,7 @@
       <c r="A447" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B447" s="75"/>
+      <c r="B447" s="68"/>
       <c r="C447" s="23" t="s">
         <v>48</v>
       </c>
@@ -39045,7 +39041,7 @@
       <c r="A448" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B448" s="75"/>
+      <c r="B448" s="68"/>
       <c r="C448" s="23" t="s">
         <v>49</v>
       </c>
@@ -39081,7 +39077,7 @@
       <c r="A449" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B449" s="75"/>
+      <c r="B449" s="68"/>
       <c r="C449" s="23" t="s">
         <v>50</v>
       </c>
@@ -39115,7 +39111,7 @@
       <c r="A450" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B450" s="75"/>
+      <c r="B450" s="68"/>
       <c r="C450" s="23" t="s">
         <v>51</v>
       </c>
@@ -39151,7 +39147,7 @@
       <c r="A451" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B451" s="75"/>
+      <c r="B451" s="68"/>
       <c r="C451" s="23" t="s">
         <v>52</v>
       </c>
@@ -39185,7 +39181,7 @@
       <c r="A452" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B452" s="75"/>
+      <c r="B452" s="68"/>
       <c r="C452" s="23" t="s">
         <v>53</v>
       </c>
@@ -39219,7 +39215,7 @@
       <c r="A453" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B453" s="75"/>
+      <c r="B453" s="68"/>
       <c r="C453" s="23" t="s">
         <v>54</v>
       </c>
@@ -39253,7 +39249,7 @@
       <c r="A454" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B454" s="75"/>
+      <c r="B454" s="68"/>
       <c r="C454" s="23" t="s">
         <v>55</v>
       </c>
@@ -39287,7 +39283,7 @@
       <c r="A455" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B455" s="75"/>
+      <c r="B455" s="68"/>
       <c r="C455" s="23" t="s">
         <v>56</v>
       </c>
@@ -39321,7 +39317,7 @@
       <c r="A456" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B456" s="75"/>
+      <c r="B456" s="68"/>
       <c r="C456" s="23" t="s">
         <v>57</v>
       </c>
@@ -39355,7 +39351,7 @@
       <c r="A457" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B457" s="75"/>
+      <c r="B457" s="68"/>
       <c r="C457" s="23" t="s">
         <v>84</v>
       </c>
@@ -39389,7 +39385,7 @@
       <c r="A458" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B458" s="75"/>
+      <c r="B458" s="68"/>
       <c r="C458" s="23" t="s">
         <v>86</v>
       </c>
@@ -39423,7 +39419,7 @@
       <c r="A459" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B459" s="75"/>
+      <c r="B459" s="68"/>
       <c r="C459" s="23" t="s">
         <v>87</v>
       </c>
@@ -39457,7 +39453,7 @@
       <c r="A460" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B460" s="75"/>
+      <c r="B460" s="68"/>
       <c r="C460" s="23" t="s">
         <v>88</v>
       </c>
@@ -39491,7 +39487,7 @@
       <c r="A461" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B461" s="75"/>
+      <c r="B461" s="68"/>
       <c r="C461" s="23" t="s">
         <v>89</v>
       </c>
@@ -39525,7 +39521,7 @@
       <c r="A462" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B462" s="75"/>
+      <c r="B462" s="68"/>
       <c r="C462" s="23" t="s">
         <v>90</v>
       </c>
@@ -39559,7 +39555,7 @@
       <c r="A463" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B463" s="75"/>
+      <c r="B463" s="68"/>
       <c r="C463" s="23" t="s">
         <v>91</v>
       </c>
@@ -39593,7 +39589,7 @@
       <c r="A464" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B464" s="75"/>
+      <c r="B464" s="68"/>
       <c r="C464" s="23" t="s">
         <v>99</v>
       </c>
@@ -39627,7 +39623,7 @@
       <c r="A465" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B465" s="75"/>
+      <c r="B465" s="68"/>
       <c r="C465" s="23" t="s">
         <v>102</v>
       </c>
@@ -39661,7 +39657,7 @@
       <c r="A466" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B466" s="75"/>
+      <c r="B466" s="68"/>
       <c r="C466" s="23" t="s">
         <v>103</v>
       </c>
@@ -39697,7 +39693,7 @@
       <c r="A467" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B467" s="75"/>
+      <c r="B467" s="68"/>
       <c r="C467" s="23" t="s">
         <v>104</v>
       </c>
@@ -39731,7 +39727,7 @@
       <c r="A468" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B468" s="75"/>
+      <c r="B468" s="68"/>
       <c r="C468" s="23" t="s">
         <v>105</v>
       </c>
@@ -39767,7 +39763,7 @@
       <c r="A469" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B469" s="76" t="s">
+      <c r="B469" s="82" t="s">
         <v>245</v>
       </c>
       <c r="C469" s="11" t="s">
@@ -39805,7 +39801,7 @@
       <c r="A470" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B470" s="76"/>
+      <c r="B470" s="82"/>
       <c r="C470" s="11" t="s">
         <v>5</v>
       </c>
@@ -39841,7 +39837,7 @@
       <c r="A471" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B471" s="76"/>
+      <c r="B471" s="82"/>
       <c r="C471" s="11" t="s">
         <v>26</v>
       </c>
@@ -39875,7 +39871,7 @@
       <c r="A472" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B472" s="76"/>
+      <c r="B472" s="82"/>
       <c r="C472" s="11" t="s">
         <v>7</v>
       </c>
@@ -39909,7 +39905,7 @@
       <c r="A473" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B473" s="76"/>
+      <c r="B473" s="82"/>
       <c r="C473" s="11" t="s">
         <v>6</v>
       </c>
@@ -39943,7 +39939,7 @@
       <c r="A474" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B474" s="76"/>
+      <c r="B474" s="82"/>
       <c r="C474" s="11" t="s">
         <v>27</v>
       </c>
@@ -39979,7 +39975,7 @@
       <c r="A475" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B475" s="76"/>
+      <c r="B475" s="82"/>
       <c r="C475" s="11" t="s">
         <v>15</v>
       </c>
@@ -40013,7 +40009,7 @@
       <c r="A476" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B476" s="76"/>
+      <c r="B476" s="82"/>
       <c r="C476" s="11" t="s">
         <v>28</v>
       </c>
@@ -40049,7 +40045,7 @@
       <c r="A477" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B477" s="76"/>
+      <c r="B477" s="82"/>
       <c r="C477" s="11" t="s">
         <v>8</v>
       </c>
@@ -40083,7 +40079,7 @@
       <c r="A478" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B478" s="76"/>
+      <c r="B478" s="82"/>
       <c r="C478" s="11" t="s">
         <v>29</v>
       </c>
@@ -40119,7 +40115,7 @@
       <c r="A479" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B479" s="76"/>
+      <c r="B479" s="82"/>
       <c r="C479" s="11" t="s">
         <v>30</v>
       </c>
@@ -40153,7 +40149,7 @@
       <c r="A480" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B480" s="76"/>
+      <c r="B480" s="82"/>
       <c r="C480" s="11" t="s">
         <v>31</v>
       </c>
@@ -40189,7 +40185,7 @@
       <c r="A481" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B481" s="76"/>
+      <c r="B481" s="82"/>
       <c r="C481" s="11" t="s">
         <v>32</v>
       </c>
@@ -40223,7 +40219,7 @@
       <c r="A482" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B482" s="76"/>
+      <c r="B482" s="82"/>
       <c r="C482" s="11" t="s">
         <v>33</v>
       </c>
@@ -40257,7 +40253,7 @@
       <c r="A483" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B483" s="76"/>
+      <c r="B483" s="82"/>
       <c r="C483" s="11" t="s">
         <v>48</v>
       </c>
@@ -40291,7 +40287,7 @@
       <c r="A484" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B484" s="76"/>
+      <c r="B484" s="82"/>
       <c r="C484" s="11" t="s">
         <v>49</v>
       </c>
@@ -40327,7 +40323,7 @@
       <c r="A485" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B485" s="76"/>
+      <c r="B485" s="82"/>
       <c r="C485" s="11" t="s">
         <v>50</v>
       </c>
@@ -40361,7 +40357,7 @@
       <c r="A486" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B486" s="76"/>
+      <c r="B486" s="82"/>
       <c r="C486" s="11" t="s">
         <v>51</v>
       </c>
@@ -40397,7 +40393,7 @@
       <c r="A487" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B487" s="76"/>
+      <c r="B487" s="82"/>
       <c r="C487" s="11" t="s">
         <v>52</v>
       </c>
@@ -40431,7 +40427,7 @@
       <c r="A488" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B488" s="76"/>
+      <c r="B488" s="82"/>
       <c r="C488" s="11" t="s">
         <v>53</v>
       </c>
@@ -40465,7 +40461,7 @@
       <c r="A489" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B489" s="76"/>
+      <c r="B489" s="82"/>
       <c r="C489" s="11" t="s">
         <v>54</v>
       </c>
@@ -40499,7 +40495,7 @@
       <c r="A490" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B490" s="76"/>
+      <c r="B490" s="82"/>
       <c r="C490" s="11" t="s">
         <v>55</v>
       </c>
@@ -40533,7 +40529,7 @@
       <c r="A491" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B491" s="76"/>
+      <c r="B491" s="82"/>
       <c r="C491" s="11" t="s">
         <v>56</v>
       </c>
@@ -40569,7 +40565,7 @@
       <c r="A492" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B492" s="76"/>
+      <c r="B492" s="82"/>
       <c r="C492" s="11" t="s">
         <v>57</v>
       </c>
@@ -40603,7 +40599,7 @@
       <c r="A493" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B493" s="76"/>
+      <c r="B493" s="82"/>
       <c r="C493" s="11" t="s">
         <v>84</v>
       </c>
@@ -40637,7 +40633,7 @@
       <c r="A494" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B494" s="76"/>
+      <c r="B494" s="82"/>
       <c r="C494" s="11" t="s">
         <v>86</v>
       </c>
@@ -40671,7 +40667,7 @@
       <c r="A495" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B495" s="76"/>
+      <c r="B495" s="82"/>
       <c r="C495" s="11" t="s">
         <v>87</v>
       </c>
@@ -40705,7 +40701,7 @@
       <c r="A496" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B496" s="80" t="s">
+      <c r="B496" s="86" t="s">
         <v>249</v>
       </c>
       <c r="C496" s="11" t="s">
@@ -40743,7 +40739,7 @@
       <c r="A497" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B497" s="80"/>
+      <c r="B497" s="86"/>
       <c r="C497" s="11" t="s">
         <v>5</v>
       </c>
@@ -40779,7 +40775,7 @@
       <c r="A498" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B498" s="80"/>
+      <c r="B498" s="86"/>
       <c r="C498" s="11" t="s">
         <v>26</v>
       </c>
@@ -40813,7 +40809,7 @@
       <c r="A499" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B499" s="80"/>
+      <c r="B499" s="86"/>
       <c r="C499" s="11" t="s">
         <v>7</v>
       </c>
@@ -40847,7 +40843,7 @@
       <c r="A500" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B500" s="80"/>
+      <c r="B500" s="86"/>
       <c r="C500" s="11" t="s">
         <v>6</v>
       </c>
@@ -40881,7 +40877,7 @@
       <c r="A501" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B501" s="80"/>
+      <c r="B501" s="86"/>
       <c r="C501" s="11" t="s">
         <v>27</v>
       </c>
@@ -40917,7 +40913,7 @@
       <c r="A502" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B502" s="80"/>
+      <c r="B502" s="86"/>
       <c r="C502" s="11" t="s">
         <v>15</v>
       </c>
@@ -40951,7 +40947,7 @@
       <c r="A503" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B503" s="80"/>
+      <c r="B503" s="86"/>
       <c r="C503" s="11" t="s">
         <v>28</v>
       </c>
@@ -40987,7 +40983,7 @@
       <c r="A504" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B504" s="80"/>
+      <c r="B504" s="86"/>
       <c r="C504" s="11" t="s">
         <v>8</v>
       </c>
@@ -41021,7 +41017,7 @@
       <c r="A505" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B505" s="80"/>
+      <c r="B505" s="86"/>
       <c r="C505" s="11" t="s">
         <v>29</v>
       </c>
@@ -41057,7 +41053,7 @@
       <c r="A506" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B506" s="80"/>
+      <c r="B506" s="86"/>
       <c r="C506" s="11" t="s">
         <v>30</v>
       </c>
@@ -41091,7 +41087,7 @@
       <c r="A507" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B507" s="80"/>
+      <c r="B507" s="86"/>
       <c r="C507" s="11" t="s">
         <v>31</v>
       </c>
@@ -41127,7 +41123,7 @@
       <c r="A508" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B508" s="80"/>
+      <c r="B508" s="86"/>
       <c r="C508" s="11" t="s">
         <v>32</v>
       </c>
@@ -41161,7 +41157,7 @@
       <c r="A509" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B509" s="80"/>
+      <c r="B509" s="86"/>
       <c r="C509" s="11" t="s">
         <v>33</v>
       </c>
@@ -41195,7 +41191,7 @@
       <c r="A510" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B510" s="80"/>
+      <c r="B510" s="86"/>
       <c r="C510" s="11" t="s">
         <v>48</v>
       </c>
@@ -41229,7 +41225,7 @@
       <c r="A511" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B511" s="80"/>
+      <c r="B511" s="86"/>
       <c r="C511" s="11" t="s">
         <v>49</v>
       </c>
@@ -41263,7 +41259,7 @@
       <c r="A512" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B512" s="80"/>
+      <c r="B512" s="86"/>
       <c r="C512" s="11" t="s">
         <v>50</v>
       </c>
@@ -41297,7 +41293,7 @@
       <c r="A513" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B513" s="80"/>
+      <c r="B513" s="86"/>
       <c r="C513" s="11" t="s">
         <v>51</v>
       </c>
@@ -41330,7 +41326,7 @@
       <c r="A514" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B514" s="80"/>
+      <c r="B514" s="86"/>
       <c r="C514" s="11" t="s">
         <v>52</v>
       </c>
@@ -41364,7 +41360,7 @@
       <c r="A515" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B515" s="80"/>
+      <c r="B515" s="86"/>
       <c r="C515" s="11" t="s">
         <v>53</v>
       </c>
@@ -41398,7 +41394,7 @@
       <c r="A516" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B516" s="80" t="s">
+      <c r="B516" s="86" t="s">
         <v>263</v>
       </c>
       <c r="C516" s="11" t="s">
@@ -41436,7 +41432,7 @@
       <c r="A517" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B517" s="80"/>
+      <c r="B517" s="86"/>
       <c r="C517" s="11" t="s">
         <v>5</v>
       </c>
@@ -41472,7 +41468,7 @@
       <c r="A518" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B518" s="80"/>
+      <c r="B518" s="86"/>
       <c r="C518" s="11" t="s">
         <v>26</v>
       </c>
@@ -41506,7 +41502,7 @@
       <c r="A519" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B519" s="80"/>
+      <c r="B519" s="86"/>
       <c r="C519" s="11" t="s">
         <v>7</v>
       </c>
@@ -41540,7 +41536,7 @@
       <c r="A520" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B520" s="80"/>
+      <c r="B520" s="86"/>
       <c r="C520" s="11" t="s">
         <v>6</v>
       </c>
@@ -41574,7 +41570,7 @@
       <c r="A521" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B521" s="80"/>
+      <c r="B521" s="86"/>
       <c r="C521" s="11" t="s">
         <v>27</v>
       </c>
@@ -41610,7 +41606,7 @@
       <c r="A522" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B522" s="80"/>
+      <c r="B522" s="86"/>
       <c r="C522" s="11" t="s">
         <v>15</v>
       </c>
@@ -41644,7 +41640,7 @@
       <c r="A523" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B523" s="80"/>
+      <c r="B523" s="86"/>
       <c r="C523" s="11" t="s">
         <v>28</v>
       </c>
@@ -41680,7 +41676,7 @@
       <c r="A524" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B524" s="80"/>
+      <c r="B524" s="86"/>
       <c r="C524" s="11" t="s">
         <v>8</v>
       </c>
@@ -41714,7 +41710,7 @@
       <c r="A525" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B525" s="80"/>
+      <c r="B525" s="86"/>
       <c r="C525" s="11" t="s">
         <v>29</v>
       </c>
@@ -41750,7 +41746,7 @@
       <c r="A526" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B526" s="80"/>
+      <c r="B526" s="86"/>
       <c r="C526" s="11" t="s">
         <v>30</v>
       </c>
@@ -41784,7 +41780,7 @@
       <c r="A527" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B527" s="80"/>
+      <c r="B527" s="86"/>
       <c r="C527" s="11" t="s">
         <v>31</v>
       </c>
@@ -41820,7 +41816,7 @@
       <c r="A528" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B528" s="80"/>
+      <c r="B528" s="86"/>
       <c r="C528" s="11" t="s">
         <v>32</v>
       </c>
@@ -41854,7 +41850,7 @@
       <c r="A529" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B529" s="80"/>
+      <c r="B529" s="86"/>
       <c r="C529" s="11" t="s">
         <v>33</v>
       </c>
@@ -41888,7 +41884,7 @@
       <c r="A530" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B530" s="80"/>
+      <c r="B530" s="86"/>
       <c r="C530" s="11" t="s">
         <v>48</v>
       </c>
@@ -41922,7 +41918,7 @@
       <c r="A531" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B531" s="80"/>
+      <c r="B531" s="86"/>
       <c r="C531" s="11" t="s">
         <v>49</v>
       </c>
@@ -41956,7 +41952,7 @@
       <c r="A532" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B532" s="80"/>
+      <c r="B532" s="86"/>
       <c r="C532" s="11" t="s">
         <v>50</v>
       </c>
@@ -41992,7 +41988,7 @@
       <c r="A533" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B533" s="80"/>
+      <c r="B533" s="86"/>
       <c r="C533" s="11" t="s">
         <v>51</v>
       </c>
@@ -42025,7 +42021,7 @@
       <c r="A534" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B534" s="80"/>
+      <c r="B534" s="86"/>
       <c r="C534" s="11" t="s">
         <v>52</v>
       </c>
@@ -42058,7 +42054,7 @@
       <c r="A535" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B535" s="80"/>
+      <c r="B535" s="86"/>
       <c r="C535" s="11" t="s">
         <v>53</v>
       </c>
@@ -42092,7 +42088,7 @@
       <c r="A536" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B536" s="80"/>
+      <c r="B536" s="86"/>
       <c r="C536" s="11" t="s">
         <v>54</v>
       </c>
@@ -42125,7 +42121,7 @@
       <c r="A537" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B537" s="80"/>
+      <c r="B537" s="86"/>
       <c r="C537" s="11" t="s">
         <v>55</v>
       </c>
@@ -42159,7 +42155,7 @@
       <c r="A538" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B538" s="80"/>
+      <c r="B538" s="86"/>
       <c r="C538" s="11" t="s">
         <v>56</v>
       </c>
@@ -42195,7 +42191,7 @@
       <c r="A539" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B539" s="80"/>
+      <c r="B539" s="86"/>
       <c r="C539" s="11" t="s">
         <v>57</v>
       </c>
@@ -42231,7 +42227,7 @@
       <c r="A540" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B540" s="80"/>
+      <c r="B540" s="86"/>
       <c r="C540" s="11" t="s">
         <v>84</v>
       </c>
@@ -42267,7 +42263,7 @@
       <c r="A541" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B541" s="80"/>
+      <c r="B541" s="86"/>
       <c r="C541" s="11" t="s">
         <v>86</v>
       </c>
@@ -42300,7 +42296,7 @@
       <c r="A542" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B542" s="80"/>
+      <c r="B542" s="86"/>
       <c r="C542" s="11" t="s">
         <v>87</v>
       </c>
@@ -42334,7 +42330,7 @@
       <c r="A543" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B543" s="79" t="s">
+      <c r="B543" s="85" t="s">
         <v>264</v>
       </c>
       <c r="C543" s="11" t="s">
@@ -42372,7 +42368,7 @@
       <c r="A544" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B544" s="79"/>
+      <c r="B544" s="85"/>
       <c r="C544" s="11" t="s">
         <v>5</v>
       </c>
@@ -42408,7 +42404,7 @@
       <c r="A545" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B545" s="79"/>
+      <c r="B545" s="85"/>
       <c r="C545" s="11" t="s">
         <v>26</v>
       </c>
@@ -42442,7 +42438,7 @@
       <c r="A546" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B546" s="79"/>
+      <c r="B546" s="85"/>
       <c r="C546" s="11" t="s">
         <v>7</v>
       </c>
@@ -42476,7 +42472,7 @@
       <c r="A547" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B547" s="79"/>
+      <c r="B547" s="85"/>
       <c r="C547" s="11" t="s">
         <v>6</v>
       </c>
@@ -42510,7 +42506,7 @@
       <c r="A548" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B548" s="79"/>
+      <c r="B548" s="85"/>
       <c r="C548" s="11" t="s">
         <v>27</v>
       </c>
@@ -42546,7 +42542,7 @@
       <c r="A549" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B549" s="79"/>
+      <c r="B549" s="85"/>
       <c r="C549" s="11" t="s">
         <v>15</v>
       </c>
@@ -42580,7 +42576,7 @@
       <c r="A550" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B550" s="79"/>
+      <c r="B550" s="85"/>
       <c r="C550" s="11" t="s">
         <v>28</v>
       </c>
@@ -42616,7 +42612,7 @@
       <c r="A551" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B551" s="79"/>
+      <c r="B551" s="85"/>
       <c r="C551" s="11" t="s">
         <v>8</v>
       </c>
@@ -42650,7 +42646,7 @@
       <c r="A552" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B552" s="79"/>
+      <c r="B552" s="85"/>
       <c r="C552" s="11" t="s">
         <v>29</v>
       </c>
@@ -42686,7 +42682,7 @@
       <c r="A553" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B553" s="79"/>
+      <c r="B553" s="85"/>
       <c r="C553" s="11" t="s">
         <v>30</v>
       </c>
@@ -42722,7 +42718,7 @@
       <c r="A554" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B554" s="79"/>
+      <c r="B554" s="85"/>
       <c r="C554" s="11" t="s">
         <v>31</v>
       </c>
@@ -42756,7 +42752,7 @@
       <c r="A555" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B555" s="79"/>
+      <c r="B555" s="85"/>
       <c r="C555" s="11" t="s">
         <v>32</v>
       </c>
@@ -42792,7 +42788,7 @@
       <c r="A556" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B556" s="79"/>
+      <c r="B556" s="85"/>
       <c r="C556" s="11" t="s">
         <v>33</v>
       </c>
@@ -42826,7 +42822,7 @@
       <c r="A557" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B557" s="79"/>
+      <c r="B557" s="85"/>
       <c r="C557" s="11" t="s">
         <v>48</v>
       </c>
@@ -42862,7 +42858,7 @@
       <c r="A558" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B558" s="79"/>
+      <c r="B558" s="85"/>
       <c r="C558" s="11" t="s">
         <v>49</v>
       </c>
@@ -42898,7 +42894,7 @@
       <c r="A559" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B559" s="79"/>
+      <c r="B559" s="85"/>
       <c r="C559" s="11" t="s">
         <v>50</v>
       </c>
@@ -42934,7 +42930,7 @@
       <c r="A560" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B560" s="79"/>
+      <c r="B560" s="85"/>
       <c r="C560" s="11" t="s">
         <v>51</v>
       </c>
@@ -42968,7 +42964,7 @@
       <c r="A561" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B561" s="79"/>
+      <c r="B561" s="85"/>
       <c r="C561" s="11" t="s">
         <v>52</v>
       </c>
@@ -43002,7 +42998,7 @@
       <c r="A562" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B562" s="79"/>
+      <c r="B562" s="85"/>
       <c r="C562" s="11" t="s">
         <v>53</v>
       </c>
@@ -43036,7 +43032,7 @@
       <c r="A563" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B563" s="79"/>
+      <c r="B563" s="85"/>
       <c r="C563" s="11" t="s">
         <v>54</v>
       </c>
@@ -43070,7 +43066,7 @@
       <c r="A564" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B564" s="79"/>
+      <c r="B564" s="85"/>
       <c r="C564" s="11" t="s">
         <v>55</v>
       </c>
@@ -43104,7 +43100,7 @@
       <c r="A565" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B565" s="79"/>
+      <c r="B565" s="85"/>
       <c r="C565" s="11" t="s">
         <v>56</v>
       </c>
@@ -43138,7 +43134,7 @@
       <c r="A566" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B566" s="79"/>
+      <c r="B566" s="85"/>
       <c r="C566" s="11" t="s">
         <v>57</v>
       </c>
@@ -43172,7 +43168,7 @@
       <c r="A567" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B567" s="79"/>
+      <c r="B567" s="85"/>
       <c r="C567" s="11" t="s">
         <v>84</v>
       </c>
@@ -43206,7 +43202,7 @@
       <c r="A568" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B568" s="79"/>
+      <c r="B568" s="85"/>
       <c r="C568" s="11" t="s">
         <v>86</v>
       </c>
@@ -43240,7 +43236,7 @@
       <c r="A569" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B569" s="79"/>
+      <c r="B569" s="85"/>
       <c r="C569" s="11" t="s">
         <v>87</v>
       </c>
@@ -43274,7 +43270,7 @@
       <c r="A570" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B570" s="79"/>
+      <c r="B570" s="85"/>
       <c r="C570" s="11" t="s">
         <v>88</v>
       </c>
@@ -43308,7 +43304,7 @@
       <c r="A571" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B571" s="79"/>
+      <c r="B571" s="85"/>
       <c r="C571" s="11" t="s">
         <v>89</v>
       </c>
@@ -43344,7 +43340,7 @@
       <c r="A572" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B572" s="79"/>
+      <c r="B572" s="85"/>
       <c r="C572" s="11" t="s">
         <v>90</v>
       </c>
@@ -43378,7 +43374,7 @@
       <c r="A573" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B573" s="77" t="s">
+      <c r="B573" s="83" t="s">
         <v>262</v>
       </c>
       <c r="C573" s="13" t="s">
@@ -43416,7 +43412,7 @@
       <c r="A574" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B574" s="77"/>
+      <c r="B574" s="83"/>
       <c r="C574" s="13" t="s">
         <v>5</v>
       </c>
@@ -43452,7 +43448,7 @@
       <c r="A575" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B575" s="77"/>
+      <c r="B575" s="83"/>
       <c r="C575" s="13" t="s">
         <v>26</v>
       </c>
@@ -43486,7 +43482,7 @@
       <c r="A576" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B576" s="77"/>
+      <c r="B576" s="83"/>
       <c r="C576" s="13" t="s">
         <v>7</v>
       </c>
@@ -43520,7 +43516,7 @@
       <c r="A577" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B577" s="77"/>
+      <c r="B577" s="83"/>
       <c r="C577" s="13" t="s">
         <v>6</v>
       </c>
@@ -43554,7 +43550,7 @@
       <c r="A578" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B578" s="77"/>
+      <c r="B578" s="83"/>
       <c r="C578" s="13" t="s">
         <v>27</v>
       </c>
@@ -43590,7 +43586,7 @@
       <c r="A579" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B579" s="77"/>
+      <c r="B579" s="83"/>
       <c r="C579" s="13" t="s">
         <v>15</v>
       </c>
@@ -43624,7 +43620,7 @@
       <c r="A580" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B580" s="77"/>
+      <c r="B580" s="83"/>
       <c r="C580" s="13" t="s">
         <v>28</v>
       </c>
@@ -43660,7 +43656,7 @@
       <c r="A581" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B581" s="77"/>
+      <c r="B581" s="83"/>
       <c r="C581" s="13" t="s">
         <v>8</v>
       </c>
@@ -43694,7 +43690,7 @@
       <c r="A582" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B582" s="77"/>
+      <c r="B582" s="83"/>
       <c r="C582" s="13" t="s">
         <v>29</v>
       </c>
@@ -43730,7 +43726,7 @@
       <c r="A583" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B583" s="77"/>
+      <c r="B583" s="83"/>
       <c r="C583" s="13" t="s">
         <v>30</v>
       </c>
@@ -43764,7 +43760,7 @@
       <c r="A584" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B584" s="77"/>
+      <c r="B584" s="83"/>
       <c r="C584" s="13" t="s">
         <v>31</v>
       </c>
@@ -43800,7 +43796,7 @@
       <c r="A585" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B585" s="77"/>
+      <c r="B585" s="83"/>
       <c r="C585" s="13" t="s">
         <v>32</v>
       </c>
@@ -43834,7 +43830,7 @@
       <c r="A586" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B586" s="77"/>
+      <c r="B586" s="83"/>
       <c r="C586" s="13" t="s">
         <v>33</v>
       </c>
@@ -43868,7 +43864,7 @@
       <c r="A587" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B587" s="77"/>
+      <c r="B587" s="83"/>
       <c r="C587" s="13" t="s">
         <v>48</v>
       </c>
@@ -43902,7 +43898,7 @@
       <c r="A588" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B588" s="77"/>
+      <c r="B588" s="83"/>
       <c r="C588" s="13" t="s">
         <v>49</v>
       </c>
@@ -43936,7 +43932,7 @@
       <c r="A589" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B589" s="77"/>
+      <c r="B589" s="83"/>
       <c r="C589" s="13" t="s">
         <v>50</v>
       </c>
@@ -43972,7 +43968,7 @@
       <c r="A590" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B590" s="77"/>
+      <c r="B590" s="83"/>
       <c r="C590" s="13" t="s">
         <v>51</v>
       </c>
@@ -44005,7 +44001,7 @@
       <c r="A591" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B591" s="77"/>
+      <c r="B591" s="83"/>
       <c r="C591" s="13" t="s">
         <v>52</v>
       </c>
@@ -44038,7 +44034,7 @@
       <c r="A592" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B592" s="77"/>
+      <c r="B592" s="83"/>
       <c r="C592" s="13" t="s">
         <v>53</v>
       </c>
@@ -44072,7 +44068,7 @@
       <c r="A593" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B593" s="77"/>
+      <c r="B593" s="83"/>
       <c r="C593" s="13" t="s">
         <v>54</v>
       </c>
@@ -44108,7 +44104,7 @@
       <c r="A594" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B594" s="77"/>
+      <c r="B594" s="83"/>
       <c r="C594" s="13" t="s">
         <v>55</v>
       </c>
@@ -44142,7 +44138,7 @@
       <c r="A595" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B595" s="77"/>
+      <c r="B595" s="83"/>
       <c r="C595" s="13" t="s">
         <v>56</v>
       </c>
@@ -44176,7 +44172,7 @@
       <c r="A596" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B596" s="77"/>
+      <c r="B596" s="83"/>
       <c r="C596" s="13" t="s">
         <v>57</v>
       </c>
@@ -44212,7 +44208,7 @@
       <c r="A597" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B597" s="77"/>
+      <c r="B597" s="83"/>
       <c r="C597" s="13" t="s">
         <v>84</v>
       </c>
@@ -44248,7 +44244,7 @@
       <c r="A598" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B598" s="77"/>
+      <c r="B598" s="83"/>
       <c r="C598" s="13" t="s">
         <v>86</v>
       </c>
@@ -44284,7 +44280,7 @@
       <c r="A599" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B599" s="77"/>
+      <c r="B599" s="83"/>
       <c r="C599" s="13" t="s">
         <v>87</v>
       </c>
@@ -44318,7 +44314,7 @@
       <c r="A600" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B600" s="77"/>
+      <c r="B600" s="83"/>
       <c r="C600" s="13" t="s">
         <v>88</v>
       </c>
@@ -44354,7 +44350,7 @@
       <c r="A601" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B601" s="77"/>
+      <c r="B601" s="83"/>
       <c r="C601" s="13" t="s">
         <v>89</v>
       </c>
@@ -44390,7 +44386,7 @@
       <c r="A602" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B602" s="77"/>
+      <c r="B602" s="83"/>
       <c r="C602" s="13" t="s">
         <v>90</v>
       </c>
@@ -44424,7 +44420,7 @@
       <c r="A603" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B603" s="67" t="s">
+      <c r="B603" s="65" t="s">
         <v>268</v>
       </c>
       <c r="C603" s="3">
@@ -44462,7 +44458,7 @@
       <c r="A604" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B604" s="67"/>
+      <c r="B604" s="65"/>
       <c r="C604" s="3">
         <v>2</v>
       </c>
@@ -44498,7 +44494,7 @@
       <c r="A605" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B605" s="67"/>
+      <c r="B605" s="65"/>
       <c r="C605" s="3">
         <v>3</v>
       </c>
@@ -44532,7 +44528,7 @@
       <c r="A606" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B606" s="67"/>
+      <c r="B606" s="65"/>
       <c r="C606" s="3">
         <v>4</v>
       </c>
@@ -44566,7 +44562,7 @@
       <c r="A607" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B607" s="67"/>
+      <c r="B607" s="65"/>
       <c r="C607" s="3">
         <v>5</v>
       </c>
@@ -44600,7 +44596,7 @@
       <c r="A608" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B608" s="67"/>
+      <c r="B608" s="65"/>
       <c r="C608" s="3">
         <v>6</v>
       </c>
@@ -44636,7 +44632,7 @@
       <c r="A609" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B609" s="67"/>
+      <c r="B609" s="65"/>
       <c r="C609" s="3">
         <v>7</v>
       </c>
@@ -44670,7 +44666,7 @@
       <c r="A610" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B610" s="67"/>
+      <c r="B610" s="65"/>
       <c r="C610" s="3">
         <v>8</v>
       </c>
@@ -44706,7 +44702,7 @@
       <c r="A611" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B611" s="67"/>
+      <c r="B611" s="65"/>
       <c r="C611" s="3">
         <v>9</v>
       </c>
@@ -44740,7 +44736,7 @@
       <c r="A612" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B612" s="67"/>
+      <c r="B612" s="65"/>
       <c r="C612" s="3">
         <v>10</v>
       </c>
@@ -44776,7 +44772,7 @@
       <c r="A613" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B613" s="67"/>
+      <c r="B613" s="65"/>
       <c r="C613" s="3">
         <v>11</v>
       </c>
@@ -44812,7 +44808,7 @@
       <c r="A614" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B614" s="67"/>
+      <c r="B614" s="65"/>
       <c r="C614" s="3">
         <v>12</v>
       </c>
@@ -44846,7 +44842,7 @@
       <c r="A615" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B615" s="67"/>
+      <c r="B615" s="65"/>
       <c r="C615" s="3">
         <v>13</v>
       </c>
@@ -44882,7 +44878,7 @@
       <c r="A616" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B616" s="67"/>
+      <c r="B616" s="65"/>
       <c r="C616" s="3">
         <v>14</v>
       </c>
@@ -44916,7 +44912,7 @@
       <c r="A617" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B617" s="67"/>
+      <c r="B617" s="65"/>
       <c r="C617" s="3">
         <v>15</v>
       </c>
@@ -44952,7 +44948,7 @@
       <c r="A618" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B618" s="67"/>
+      <c r="B618" s="65"/>
       <c r="C618" s="3">
         <v>16</v>
       </c>
@@ -44985,7 +44981,7 @@
       <c r="A619" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B619" s="67"/>
+      <c r="B619" s="65"/>
       <c r="C619" s="3">
         <v>17</v>
       </c>
@@ -45021,7 +45017,7 @@
       <c r="A620" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B620" s="67"/>
+      <c r="B620" s="65"/>
       <c r="C620" s="3">
         <v>18</v>
       </c>
@@ -45054,7 +45050,7 @@
       <c r="A621" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B621" s="67"/>
+      <c r="B621" s="65"/>
       <c r="C621" s="3">
         <v>19</v>
       </c>
@@ -45087,7 +45083,7 @@
       <c r="A622" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B622" s="67"/>
+      <c r="B622" s="65"/>
       <c r="C622" s="3">
         <v>20</v>
       </c>
@@ -45120,7 +45116,7 @@
       <c r="A623" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B623" s="67"/>
+      <c r="B623" s="65"/>
       <c r="C623" s="3">
         <v>21</v>
       </c>
@@ -45153,7 +45149,7 @@
       <c r="A624" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B624" s="67"/>
+      <c r="B624" s="65"/>
       <c r="C624" s="3">
         <v>22</v>
       </c>
@@ -45184,7 +45180,7 @@
       <c r="A625" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B625" s="67"/>
+      <c r="B625" s="65"/>
       <c r="C625" s="3">
         <v>23</v>
       </c>
@@ -45215,7 +45211,7 @@
       <c r="A626" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B626" s="67"/>
+      <c r="B626" s="65"/>
       <c r="C626" s="3">
         <v>24</v>
       </c>
@@ -45246,7 +45242,7 @@
       <c r="A627" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B627" s="67"/>
+      <c r="B627" s="65"/>
       <c r="C627" s="3">
         <v>25</v>
       </c>
@@ -45279,7 +45275,7 @@
       <c r="A628" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B628" s="67"/>
+      <c r="B628" s="65"/>
       <c r="C628" s="3">
         <v>26</v>
       </c>
@@ -45312,7 +45308,7 @@
       <c r="A629" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B629" s="67"/>
+      <c r="B629" s="65"/>
       <c r="C629" s="3">
         <v>27</v>
       </c>
@@ -45345,7 +45341,7 @@
       <c r="A630" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B630" s="67"/>
+      <c r="B630" s="65"/>
       <c r="C630" s="3">
         <v>28</v>
       </c>
@@ -45381,7 +45377,7 @@
       <c r="A631" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B631" s="67"/>
+      <c r="B631" s="65"/>
       <c r="C631" s="3">
         <v>29</v>
       </c>
@@ -45417,7 +45413,7 @@
       <c r="A632" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B632" s="67" t="s">
+      <c r="B632" s="65" t="s">
         <v>271</v>
       </c>
       <c r="C632" s="3">
@@ -45455,7 +45451,7 @@
       <c r="A633" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B633" s="67"/>
+      <c r="B633" s="65"/>
       <c r="C633" s="3">
         <v>2</v>
       </c>
@@ -45491,7 +45487,7 @@
       <c r="A634" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B634" s="67"/>
+      <c r="B634" s="65"/>
       <c r="C634" s="3">
         <v>3</v>
       </c>
@@ -45525,7 +45521,7 @@
       <c r="A635" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B635" s="67"/>
+      <c r="B635" s="65"/>
       <c r="C635" s="3">
         <v>4</v>
       </c>
@@ -45559,7 +45555,7 @@
       <c r="A636" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B636" s="67"/>
+      <c r="B636" s="65"/>
       <c r="C636" s="3">
         <v>5</v>
       </c>
@@ -45593,7 +45589,7 @@
       <c r="A637" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B637" s="67"/>
+      <c r="B637" s="65"/>
       <c r="C637" s="3">
         <v>6</v>
       </c>
@@ -45629,7 +45625,7 @@
       <c r="A638" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B638" s="67"/>
+      <c r="B638" s="65"/>
       <c r="C638" s="3">
         <v>7</v>
       </c>
@@ -45663,7 +45659,7 @@
       <c r="A639" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B639" s="67"/>
+      <c r="B639" s="65"/>
       <c r="C639" s="3">
         <v>8</v>
       </c>
@@ -45699,7 +45695,7 @@
       <c r="A640" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B640" s="67"/>
+      <c r="B640" s="65"/>
       <c r="C640" s="3">
         <v>9</v>
       </c>
@@ -45733,7 +45729,7 @@
       <c r="A641" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B641" s="67"/>
+      <c r="B641" s="65"/>
       <c r="C641" s="3">
         <v>10</v>
       </c>
@@ -45769,7 +45765,7 @@
       <c r="A642" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B642" s="67"/>
+      <c r="B642" s="65"/>
       <c r="C642" s="3">
         <v>11</v>
       </c>
@@ -45803,7 +45799,7 @@
       <c r="A643" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B643" s="67"/>
+      <c r="B643" s="65"/>
       <c r="C643" s="3">
         <v>12</v>
       </c>
@@ -45839,7 +45835,7 @@
       <c r="A644" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B644" s="67"/>
+      <c r="B644" s="65"/>
       <c r="C644" s="3">
         <v>13</v>
       </c>
@@ -45873,7 +45869,7 @@
       <c r="A645" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B645" s="67"/>
+      <c r="B645" s="65"/>
       <c r="C645" s="3">
         <v>14</v>
       </c>
@@ -45907,7 +45903,7 @@
       <c r="A646" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B646" s="67"/>
+      <c r="B646" s="65"/>
       <c r="C646" s="3">
         <v>15</v>
       </c>
@@ -45941,7 +45937,7 @@
       <c r="A647" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B647" s="67"/>
+      <c r="B647" s="65"/>
       <c r="C647" s="3">
         <v>16</v>
       </c>
@@ -45977,7 +45973,7 @@
       <c r="A648" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B648" s="67"/>
+      <c r="B648" s="65"/>
       <c r="C648" s="3">
         <v>17</v>
       </c>
@@ -46011,7 +46007,7 @@
       <c r="A649" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B649" s="67"/>
+      <c r="B649" s="65"/>
       <c r="C649" s="3">
         <v>18</v>
       </c>
@@ -46047,7 +46043,7 @@
       <c r="A650" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B650" s="67"/>
+      <c r="B650" s="65"/>
       <c r="C650" s="3">
         <v>19</v>
       </c>
@@ -46081,7 +46077,7 @@
       <c r="A651" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B651" s="67"/>
+      <c r="B651" s="65"/>
       <c r="C651" s="3">
         <v>20</v>
       </c>
@@ -46115,7 +46111,7 @@
       <c r="A652" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B652" s="67"/>
+      <c r="B652" s="65"/>
       <c r="C652" s="3">
         <v>21</v>
       </c>
@@ -46149,7 +46145,7 @@
       <c r="A653" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B653" s="67"/>
+      <c r="B653" s="65"/>
       <c r="C653" s="3">
         <v>22</v>
       </c>
@@ -46182,7 +46178,7 @@
       <c r="A654" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B654" s="67"/>
+      <c r="B654" s="65"/>
       <c r="C654" s="3">
         <v>23</v>
       </c>
@@ -46215,7 +46211,7 @@
       <c r="A655" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B655" s="67"/>
+      <c r="B655" s="65"/>
       <c r="C655" s="3">
         <v>24</v>
       </c>
@@ -46248,7 +46244,7 @@
       <c r="A656" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B656" s="67"/>
+      <c r="B656" s="65"/>
       <c r="C656" s="3">
         <v>25</v>
       </c>
@@ -46281,7 +46277,7 @@
       <c r="A657" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B657" s="67"/>
+      <c r="B657" s="65"/>
       <c r="C657" s="3">
         <v>26</v>
       </c>
@@ -46314,7 +46310,7 @@
       <c r="A658" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B658" s="67"/>
+      <c r="B658" s="65"/>
       <c r="C658" s="3">
         <v>27</v>
       </c>
@@ -46347,7 +46343,7 @@
       <c r="A659" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B659" s="67"/>
+      <c r="B659" s="65"/>
       <c r="C659" s="3">
         <v>28</v>
       </c>
@@ -46380,7 +46376,7 @@
       <c r="A660" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B660" s="67"/>
+      <c r="B660" s="65"/>
       <c r="C660" s="3">
         <v>29</v>
       </c>
@@ -46413,7 +46409,7 @@
       <c r="A661" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B661" s="67"/>
+      <c r="B661" s="65"/>
       <c r="C661" s="3">
         <v>30</v>
       </c>
@@ -46446,7 +46442,7 @@
       <c r="A662" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B662" s="67"/>
+      <c r="B662" s="65"/>
       <c r="C662" s="3">
         <v>31</v>
       </c>
@@ -46482,7 +46478,7 @@
       <c r="A663" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B663" s="67"/>
+      <c r="B663" s="65"/>
       <c r="C663" s="3">
         <v>32</v>
       </c>
@@ -46518,7 +46514,7 @@
       <c r="A664" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B664" s="67" t="s">
+      <c r="B664" s="65" t="s">
         <v>276</v>
       </c>
       <c r="C664" s="3">
@@ -46556,7 +46552,7 @@
       <c r="A665" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B665" s="67"/>
+      <c r="B665" s="65"/>
       <c r="C665" s="3">
         <v>2</v>
       </c>
@@ -46592,7 +46588,7 @@
       <c r="A666" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B666" s="67"/>
+      <c r="B666" s="65"/>
       <c r="C666" s="3">
         <v>3</v>
       </c>
@@ -46626,7 +46622,7 @@
       <c r="A667" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B667" s="67"/>
+      <c r="B667" s="65"/>
       <c r="C667" s="3">
         <v>4</v>
       </c>
@@ -46660,7 +46656,7 @@
       <c r="A668" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B668" s="67"/>
+      <c r="B668" s="65"/>
       <c r="C668" s="3">
         <v>5</v>
       </c>
@@ -46694,7 +46690,7 @@
       <c r="A669" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B669" s="67"/>
+      <c r="B669" s="65"/>
       <c r="C669" s="3">
         <v>6</v>
       </c>
@@ -46730,7 +46726,7 @@
       <c r="A670" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B670" s="67"/>
+      <c r="B670" s="65"/>
       <c r="C670" s="3">
         <v>7</v>
       </c>
@@ -46764,7 +46760,7 @@
       <c r="A671" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B671" s="67"/>
+      <c r="B671" s="65"/>
       <c r="C671" s="3">
         <v>8</v>
       </c>
@@ -46800,7 +46796,7 @@
       <c r="A672" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B672" s="67"/>
+      <c r="B672" s="65"/>
       <c r="C672" s="3">
         <v>9</v>
       </c>
@@ -46834,7 +46830,7 @@
       <c r="A673" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B673" s="67"/>
+      <c r="B673" s="65"/>
       <c r="C673" s="3">
         <v>10</v>
       </c>
@@ -46870,7 +46866,7 @@
       <c r="A674" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B674" s="67"/>
+      <c r="B674" s="65"/>
       <c r="C674" s="3">
         <v>11</v>
       </c>
@@ -46904,7 +46900,7 @@
       <c r="A675" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B675" s="67"/>
+      <c r="B675" s="65"/>
       <c r="C675" s="3">
         <v>12</v>
       </c>
@@ -46940,7 +46936,7 @@
       <c r="A676" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B676" s="67"/>
+      <c r="B676" s="65"/>
       <c r="C676" s="3">
         <v>13</v>
       </c>
@@ -46974,7 +46970,7 @@
       <c r="A677" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B677" s="67"/>
+      <c r="B677" s="65"/>
       <c r="C677" s="3">
         <v>14</v>
       </c>
@@ -47008,7 +47004,7 @@
       <c r="A678" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B678" s="67"/>
+      <c r="B678" s="65"/>
       <c r="C678" s="3">
         <v>15</v>
       </c>
@@ -47042,7 +47038,7 @@
       <c r="A679" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B679" s="67"/>
+      <c r="B679" s="65"/>
       <c r="C679" s="3">
         <v>16</v>
       </c>
@@ -47078,7 +47074,7 @@
       <c r="A680" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B680" s="67"/>
+      <c r="B680" s="65"/>
       <c r="C680" s="3">
         <v>17</v>
       </c>
@@ -47112,7 +47108,7 @@
       <c r="A681" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B681" s="67"/>
+      <c r="B681" s="65"/>
       <c r="C681" s="3">
         <v>18</v>
       </c>
@@ -47145,7 +47141,7 @@
       <c r="A682" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B682" s="67"/>
+      <c r="B682" s="65"/>
       <c r="C682" s="3">
         <v>19</v>
       </c>
@@ -47178,7 +47174,7 @@
       <c r="A683" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B683" s="67"/>
+      <c r="B683" s="65"/>
       <c r="C683" s="3">
         <v>20</v>
       </c>
@@ -47211,7 +47207,7 @@
       <c r="A684" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B684" s="67"/>
+      <c r="B684" s="65"/>
       <c r="C684" s="3">
         <v>21</v>
       </c>
@@ -47244,7 +47240,7 @@
       <c r="A685" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B685" s="67"/>
+      <c r="B685" s="65"/>
       <c r="C685" s="3">
         <v>22</v>
       </c>
@@ -47277,7 +47273,7 @@
       <c r="A686" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B686" s="67"/>
+      <c r="B686" s="65"/>
       <c r="C686" s="3">
         <v>23</v>
       </c>
@@ -47310,7 +47306,7 @@
       <c r="A687" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B687" s="67"/>
+      <c r="B687" s="65"/>
       <c r="C687" s="3">
         <v>24</v>
       </c>
@@ -47343,7 +47339,7 @@
       <c r="A688" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B688" s="67" t="s">
+      <c r="B688" s="65" t="s">
         <v>278</v>
       </c>
       <c r="C688" s="3">
@@ -47381,7 +47377,7 @@
       <c r="A689" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B689" s="67"/>
+      <c r="B689" s="65"/>
       <c r="C689" s="3">
         <v>2</v>
       </c>
@@ -47417,7 +47413,7 @@
       <c r="A690" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B690" s="67"/>
+      <c r="B690" s="65"/>
       <c r="C690" s="3">
         <v>3</v>
       </c>
@@ -47451,7 +47447,7 @@
       <c r="A691" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B691" s="67"/>
+      <c r="B691" s="65"/>
       <c r="C691" s="3">
         <v>4</v>
       </c>
@@ -47485,7 +47481,7 @@
       <c r="A692" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B692" s="67"/>
+      <c r="B692" s="65"/>
       <c r="C692" s="3">
         <v>5</v>
       </c>
@@ -47519,7 +47515,7 @@
       <c r="A693" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B693" s="67"/>
+      <c r="B693" s="65"/>
       <c r="C693" s="3">
         <v>6</v>
       </c>
@@ -47555,7 +47551,7 @@
       <c r="A694" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B694" s="67"/>
+      <c r="B694" s="65"/>
       <c r="C694" s="3">
         <v>7</v>
       </c>
@@ -47589,7 +47585,7 @@
       <c r="A695" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B695" s="67"/>
+      <c r="B695" s="65"/>
       <c r="C695" s="3">
         <v>8</v>
       </c>
@@ -47625,7 +47621,7 @@
       <c r="A696" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B696" s="67"/>
+      <c r="B696" s="65"/>
       <c r="C696" s="3">
         <v>9</v>
       </c>
@@ -47659,7 +47655,7 @@
       <c r="A697" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B697" s="67"/>
+      <c r="B697" s="65"/>
       <c r="C697" s="3">
         <v>10</v>
       </c>
@@ -47695,7 +47691,7 @@
       <c r="A698" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B698" s="67"/>
+      <c r="B698" s="65"/>
       <c r="C698" s="3">
         <v>11</v>
       </c>
@@ -47729,7 +47725,7 @@
       <c r="A699" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B699" s="67"/>
+      <c r="B699" s="65"/>
       <c r="C699" s="3">
         <v>12</v>
       </c>
@@ -47765,7 +47761,7 @@
       <c r="A700" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B700" s="67"/>
+      <c r="B700" s="65"/>
       <c r="C700" s="3">
         <v>13</v>
       </c>
@@ -47799,7 +47795,7 @@
       <c r="A701" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B701" s="67"/>
+      <c r="B701" s="65"/>
       <c r="C701" s="3">
         <v>14</v>
       </c>
@@ -47833,7 +47829,7 @@
       <c r="A702" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B702" s="67"/>
+      <c r="B702" s="65"/>
       <c r="C702" s="3">
         <v>15</v>
       </c>
@@ -47867,7 +47863,7 @@
       <c r="A703" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B703" s="67"/>
+      <c r="B703" s="65"/>
       <c r="C703" s="3">
         <v>16</v>
       </c>
@@ -47901,7 +47897,7 @@
       <c r="A704" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B704" s="67"/>
+      <c r="B704" s="65"/>
       <c r="C704" s="3">
         <v>17</v>
       </c>
@@ -47937,7 +47933,7 @@
       <c r="A705" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B705" s="67"/>
+      <c r="B705" s="65"/>
       <c r="C705" s="3">
         <v>18</v>
       </c>
@@ -47973,7 +47969,7 @@
       <c r="A706" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B706" s="67"/>
+      <c r="B706" s="65"/>
       <c r="C706" s="3">
         <v>19</v>
       </c>
@@ -48006,7 +48002,7 @@
       <c r="A707" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B707" s="67"/>
+      <c r="B707" s="65"/>
       <c r="C707" s="3">
         <v>20</v>
       </c>
@@ -48039,7 +48035,7 @@
       <c r="A708" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B708" s="67"/>
+      <c r="B708" s="65"/>
       <c r="C708" s="3">
         <v>21</v>
       </c>
@@ -48073,7 +48069,7 @@
       <c r="A709" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B709" s="67" t="s">
+      <c r="B709" s="65" t="s">
         <v>363</v>
       </c>
       <c r="C709" s="44" t="s">
@@ -48109,7 +48105,7 @@
       <c r="A710" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B710" s="67"/>
+      <c r="B710" s="65"/>
       <c r="C710" s="3">
         <v>2</v>
       </c>
@@ -48142,7 +48138,7 @@
       <c r="A711" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B711" s="67" t="s">
+      <c r="B711" s="65" t="s">
         <v>367</v>
       </c>
       <c r="C711" s="3">
@@ -48177,7 +48173,7 @@
       <c r="A712" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B712" s="67"/>
+      <c r="B712" s="65"/>
       <c r="C712" s="3">
         <v>2</v>
       </c>
@@ -48213,7 +48209,7 @@
       <c r="A713" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B713" s="67"/>
+      <c r="B713" s="65"/>
       <c r="C713" s="3">
         <v>3</v>
       </c>
@@ -48247,7 +48243,7 @@
       <c r="A714" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B714" s="67"/>
+      <c r="B714" s="65"/>
       <c r="C714" s="3">
         <v>4</v>
       </c>
@@ -48281,7 +48277,7 @@
       <c r="A715" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B715" s="67"/>
+      <c r="B715" s="65"/>
       <c r="C715" s="3">
         <v>5</v>
       </c>
@@ -48315,7 +48311,7 @@
       <c r="A716" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B716" s="67"/>
+      <c r="B716" s="65"/>
       <c r="C716" s="3">
         <v>6</v>
       </c>
@@ -48349,7 +48345,7 @@
       <c r="A717" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B717" s="67"/>
+      <c r="B717" s="65"/>
       <c r="C717" s="3">
         <v>7</v>
       </c>
@@ -48385,7 +48381,7 @@
       <c r="A718" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B718" s="67"/>
+      <c r="B718" s="65"/>
       <c r="C718" s="3">
         <v>8</v>
       </c>
@@ -48419,7 +48415,7 @@
       <c r="A719" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B719" s="67"/>
+      <c r="B719" s="65"/>
       <c r="C719" s="3">
         <v>9</v>
       </c>
@@ -48455,7 +48451,7 @@
       <c r="A720" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B720" s="67"/>
+      <c r="B720" s="65"/>
       <c r="C720" s="3">
         <v>10</v>
       </c>
@@ -48489,7 +48485,7 @@
       <c r="A721" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B721" s="67"/>
+      <c r="B721" s="65"/>
       <c r="C721" s="3">
         <v>11</v>
       </c>
@@ -48525,7 +48521,7 @@
       <c r="A722" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B722" s="67"/>
+      <c r="B722" s="65"/>
       <c r="C722" s="3">
         <v>12</v>
       </c>
@@ -48559,7 +48555,7 @@
       <c r="A723" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B723" s="67"/>
+      <c r="B723" s="65"/>
       <c r="C723" s="3">
         <v>13</v>
       </c>
@@ -48595,7 +48591,7 @@
       <c r="A724" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B724" s="67"/>
+      <c r="B724" s="65"/>
       <c r="C724" s="3">
         <v>14</v>
       </c>
@@ -48629,7 +48625,7 @@
       <c r="A725" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B725" s="67"/>
+      <c r="B725" s="65"/>
       <c r="C725" s="3">
         <v>15</v>
       </c>
@@ -48665,7 +48661,7 @@
       <c r="A726" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B726" s="67"/>
+      <c r="B726" s="65"/>
       <c r="C726" s="3">
         <v>16</v>
       </c>
@@ -48699,7 +48695,7 @@
       <c r="A727" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B727" s="67"/>
+      <c r="B727" s="65"/>
       <c r="C727" s="3">
         <v>17</v>
       </c>
@@ -48735,7 +48731,7 @@
       <c r="A728" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B728" s="67"/>
+      <c r="B728" s="65"/>
       <c r="C728" s="3">
         <v>18</v>
       </c>
@@ -48771,7 +48767,7 @@
       <c r="A729" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B729" s="67"/>
+      <c r="B729" s="65"/>
       <c r="C729" s="3">
         <v>19</v>
       </c>
@@ -48805,7 +48801,7 @@
       <c r="A730" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B730" s="67"/>
+      <c r="B730" s="65"/>
       <c r="C730" s="3">
         <v>20</v>
       </c>
@@ -48841,7 +48837,7 @@
       <c r="A731" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B731" s="67"/>
+      <c r="B731" s="65"/>
       <c r="C731" s="3">
         <v>21</v>
       </c>
@@ -48875,7 +48871,7 @@
       <c r="A732" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B732" s="67"/>
+      <c r="B732" s="65"/>
       <c r="C732" s="3">
         <v>22</v>
       </c>
@@ -48909,7 +48905,7 @@
       <c r="A733" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B733" s="67"/>
+      <c r="B733" s="65"/>
       <c r="C733" s="3">
         <v>23</v>
       </c>
@@ -48943,7 +48939,7 @@
       <c r="A734" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B734" s="67"/>
+      <c r="B734" s="65"/>
       <c r="C734" s="3">
         <v>24</v>
       </c>
@@ -48977,7 +48973,7 @@
       <c r="A735" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B735" s="67"/>
+      <c r="B735" s="65"/>
       <c r="C735" s="3">
         <v>25</v>
       </c>
@@ -49011,7 +49007,7 @@
       <c r="A736" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B736" s="67"/>
+      <c r="B736" s="65"/>
       <c r="C736" s="3">
         <v>26</v>
       </c>
@@ -49045,7 +49041,7 @@
       <c r="A737" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B737" s="67"/>
+      <c r="B737" s="65"/>
       <c r="C737" s="3">
         <v>27</v>
       </c>
@@ -49079,7 +49075,7 @@
       <c r="A738" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B738" s="67"/>
+      <c r="B738" s="65"/>
       <c r="C738" s="3">
         <v>28</v>
       </c>
@@ -49113,7 +49109,7 @@
       <c r="A739" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B739" s="67"/>
+      <c r="B739" s="65"/>
       <c r="C739" s="3">
         <v>29</v>
       </c>
@@ -49149,7 +49145,7 @@
       <c r="A740" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B740" s="67"/>
+      <c r="B740" s="65"/>
       <c r="C740" s="3">
         <v>30</v>
       </c>
@@ -49183,7 +49179,7 @@
       <c r="A741" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B741" s="67"/>
+      <c r="B741" s="65"/>
       <c r="C741" s="3">
         <v>31</v>
       </c>
@@ -49217,7 +49213,7 @@
       <c r="A742" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B742" s="67"/>
+      <c r="B742" s="65"/>
       <c r="C742" s="3">
         <v>32</v>
       </c>
@@ -49251,7 +49247,7 @@
       <c r="A743" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B743" s="67"/>
+      <c r="B743" s="65"/>
       <c r="C743" s="3">
         <v>33</v>
       </c>
@@ -49285,7 +49281,7 @@
       <c r="A744" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B744" s="67"/>
+      <c r="B744" s="65"/>
       <c r="C744" s="3">
         <v>34</v>
       </c>
@@ -49321,7 +49317,7 @@
       <c r="A745" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B745" s="67" t="s">
+      <c r="B745" s="65" t="s">
         <v>373</v>
       </c>
       <c r="C745" s="3">
@@ -49359,7 +49355,7 @@
       <c r="A746" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B746" s="67"/>
+      <c r="B746" s="65"/>
       <c r="C746" s="3">
         <v>2</v>
       </c>
@@ -49395,7 +49391,7 @@
       <c r="A747" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B747" s="67"/>
+      <c r="B747" s="65"/>
       <c r="C747" s="3">
         <v>3</v>
       </c>
@@ -49429,7 +49425,7 @@
       <c r="A748" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B748" s="67"/>
+      <c r="B748" s="65"/>
       <c r="C748" s="3">
         <v>4</v>
       </c>
@@ -49463,7 +49459,7 @@
       <c r="A749" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B749" s="67"/>
+      <c r="B749" s="65"/>
       <c r="C749" s="3">
         <v>5</v>
       </c>
@@ -49497,7 +49493,7 @@
       <c r="A750" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B750" s="67"/>
+      <c r="B750" s="65"/>
       <c r="C750" s="3">
         <v>6</v>
       </c>
@@ -49531,7 +49527,7 @@
       <c r="A751" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B751" s="67"/>
+      <c r="B751" s="65"/>
       <c r="C751" s="3">
         <v>7</v>
       </c>
@@ -49567,7 +49563,7 @@
       <c r="A752" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B752" s="67"/>
+      <c r="B752" s="65"/>
       <c r="C752" s="3">
         <v>8</v>
       </c>
@@ -49599,7 +49595,7 @@
       <c r="A753" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B753" s="67"/>
+      <c r="B753" s="65"/>
       <c r="C753" s="3">
         <v>9</v>
       </c>
@@ -49635,7 +49631,7 @@
       <c r="A754" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B754" s="67"/>
+      <c r="B754" s="65"/>
       <c r="C754" s="3">
         <v>10</v>
       </c>
@@ -49669,7 +49665,7 @@
       <c r="A755" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B755" s="67" t="s">
+      <c r="B755" s="65" t="s">
         <v>375</v>
       </c>
       <c r="C755" s="3">
@@ -49707,7 +49703,7 @@
       <c r="A756" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B756" s="67"/>
+      <c r="B756" s="65"/>
       <c r="C756" s="3">
         <v>2</v>
       </c>
@@ -49743,7 +49739,7 @@
       <c r="A757" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B757" s="67"/>
+      <c r="B757" s="65"/>
       <c r="C757" s="3">
         <v>3</v>
       </c>
@@ -49777,7 +49773,7 @@
       <c r="A758" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B758" s="67"/>
+      <c r="B758" s="65"/>
       <c r="C758" s="3">
         <v>4</v>
       </c>
@@ -49811,7 +49807,7 @@
       <c r="A759" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B759" s="67"/>
+      <c r="B759" s="65"/>
       <c r="C759" s="3">
         <v>5</v>
       </c>
@@ -49845,7 +49841,7 @@
       <c r="A760" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B760" s="67"/>
+      <c r="B760" s="65"/>
       <c r="C760" s="3">
         <v>6</v>
       </c>
@@ -49881,7 +49877,7 @@
       <c r="A761" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B761" s="67"/>
+      <c r="B761" s="65"/>
       <c r="C761" s="3">
         <v>7</v>
       </c>
@@ -49915,7 +49911,7 @@
       <c r="A762" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B762" s="67"/>
+      <c r="B762" s="65"/>
       <c r="C762" s="3">
         <v>8</v>
       </c>
@@ -49951,7 +49947,7 @@
       <c r="A763" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B763" s="67"/>
+      <c r="B763" s="65"/>
       <c r="C763" s="3">
         <v>9</v>
       </c>
@@ -49985,7 +49981,7 @@
       <c r="A764" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B764" s="67"/>
+      <c r="B764" s="65"/>
       <c r="C764" s="3">
         <v>10</v>
       </c>
@@ -50021,7 +50017,7 @@
       <c r="A765" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B765" s="67"/>
+      <c r="B765" s="65"/>
       <c r="C765" s="3">
         <v>11</v>
       </c>
@@ -50055,7 +50051,7 @@
       <c r="A766" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B766" s="67"/>
+      <c r="B766" s="65"/>
       <c r="C766" s="3">
         <v>12</v>
       </c>
@@ -50091,7 +50087,7 @@
       <c r="A767" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B767" s="67"/>
+      <c r="B767" s="65"/>
       <c r="C767" s="3">
         <v>13</v>
       </c>
@@ -50125,7 +50121,7 @@
       <c r="A768" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B768" s="67"/>
+      <c r="B768" s="65"/>
       <c r="C768" s="3">
         <v>14</v>
       </c>
@@ -50159,7 +50155,7 @@
       <c r="A769" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B769" s="67"/>
+      <c r="B769" s="65"/>
       <c r="C769" s="3">
         <v>15</v>
       </c>
@@ -50193,7 +50189,7 @@
       <c r="A770" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B770" s="67"/>
+      <c r="B770" s="65"/>
       <c r="C770" s="3">
         <v>16</v>
       </c>
@@ -50227,7 +50223,7 @@
       <c r="A771" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B771" s="67"/>
+      <c r="B771" s="65"/>
       <c r="C771" s="3">
         <v>17</v>
       </c>
@@ -50261,7 +50257,7 @@
       <c r="A772" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B772" s="67"/>
+      <c r="B772" s="65"/>
       <c r="C772" s="3">
         <v>18</v>
       </c>
@@ -50297,7 +50293,7 @@
       <c r="A773" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B773" s="67"/>
+      <c r="B773" s="65"/>
       <c r="C773" s="3">
         <v>19</v>
       </c>
@@ -50331,7 +50327,7 @@
       <c r="A774" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B774" s="67"/>
+      <c r="B774" s="65"/>
       <c r="C774" s="3">
         <v>20</v>
       </c>
@@ -50365,7 +50361,7 @@
       <c r="A775" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B775" s="67"/>
+      <c r="B775" s="65"/>
       <c r="C775" s="3">
         <v>21</v>
       </c>
@@ -50399,7 +50395,7 @@
       <c r="A776" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B776" s="67"/>
+      <c r="B776" s="65"/>
       <c r="C776" s="3">
         <v>22</v>
       </c>
@@ -50433,7 +50429,7 @@
       <c r="A777" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B777" s="67"/>
+      <c r="B777" s="65"/>
       <c r="C777" s="3">
         <v>23</v>
       </c>
@@ -50466,7 +50462,7 @@
       <c r="A778" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B778" s="67"/>
+      <c r="B778" s="65"/>
       <c r="C778" s="3">
         <v>24</v>
       </c>
@@ -50499,7 +50495,7 @@
       <c r="A779" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B779" s="67"/>
+      <c r="B779" s="65"/>
       <c r="C779" s="3">
         <v>25</v>
       </c>
@@ -50532,7 +50528,7 @@
       <c r="A780" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B780" s="67"/>
+      <c r="B780" s="65"/>
       <c r="C780" s="3">
         <v>26</v>
       </c>
@@ -50568,7 +50564,7 @@
       <c r="A781" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B781" s="67"/>
+      <c r="B781" s="65"/>
       <c r="C781" s="3">
         <v>27</v>
       </c>
@@ -50601,7 +50597,7 @@
       <c r="A782" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B782" s="67"/>
+      <c r="B782" s="65"/>
       <c r="C782" s="3">
         <v>28</v>
       </c>
@@ -50634,7 +50630,7 @@
       <c r="A783" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B783" s="67"/>
+      <c r="B783" s="65"/>
       <c r="C783" s="3">
         <v>29</v>
       </c>
@@ -50667,7 +50663,7 @@
       <c r="A784" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B784" s="67"/>
+      <c r="B784" s="65"/>
       <c r="C784" s="3">
         <v>30</v>
       </c>
@@ -50700,7 +50696,7 @@
       <c r="A785" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B785" s="67" t="s">
+      <c r="B785" s="65" t="s">
         <v>379</v>
       </c>
       <c r="C785" s="3">
@@ -50738,7 +50734,7 @@
       <c r="A786" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B786" s="67"/>
+      <c r="B786" s="65"/>
       <c r="C786" s="3">
         <v>2</v>
       </c>
@@ -50774,7 +50770,7 @@
       <c r="A787" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B787" s="67"/>
+      <c r="B787" s="65"/>
       <c r="C787" s="3">
         <v>3</v>
       </c>
@@ -50808,7 +50804,7 @@
       <c r="A788" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B788" s="67"/>
+      <c r="B788" s="65"/>
       <c r="C788" s="3">
         <v>4</v>
       </c>
@@ -50842,7 +50838,7 @@
       <c r="A789" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B789" s="67"/>
+      <c r="B789" s="65"/>
       <c r="C789" s="3">
         <v>5</v>
       </c>
@@ -50876,7 +50872,7 @@
       <c r="A790" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B790" s="67"/>
+      <c r="B790" s="65"/>
       <c r="C790" s="3">
         <v>6</v>
       </c>
@@ -50912,7 +50908,7 @@
       <c r="A791" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B791" s="67"/>
+      <c r="B791" s="65"/>
       <c r="C791" s="3">
         <v>7</v>
       </c>
@@ -50946,7 +50942,7 @@
       <c r="A792" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B792" s="67"/>
+      <c r="B792" s="65"/>
       <c r="C792" s="3">
         <v>8</v>
       </c>
@@ -50982,7 +50978,7 @@
       <c r="A793" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B793" s="67"/>
+      <c r="B793" s="65"/>
       <c r="C793" s="3">
         <v>9</v>
       </c>
@@ -51016,7 +51012,7 @@
       <c r="A794" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B794" s="67"/>
+      <c r="B794" s="65"/>
       <c r="C794" s="3">
         <v>10</v>
       </c>
@@ -51052,7 +51048,7 @@
       <c r="A795" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B795" s="67"/>
+      <c r="B795" s="65"/>
       <c r="C795" s="3">
         <v>11</v>
       </c>
@@ -51086,7 +51082,7 @@
       <c r="A796" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B796" s="67"/>
+      <c r="B796" s="65"/>
       <c r="C796" s="3">
         <v>12</v>
       </c>
@@ -51122,7 +51118,7 @@
       <c r="A797" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B797" s="67"/>
+      <c r="B797" s="65"/>
       <c r="C797" s="3">
         <v>13</v>
       </c>
@@ -51156,7 +51152,7 @@
       <c r="A798" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B798" s="67"/>
+      <c r="B798" s="65"/>
       <c r="C798" s="3">
         <v>14</v>
       </c>
@@ -51192,7 +51188,7 @@
       <c r="A799" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B799" s="67"/>
+      <c r="B799" s="65"/>
       <c r="C799" s="3">
         <v>15</v>
       </c>
@@ -51226,7 +51222,7 @@
       <c r="A800" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B800" s="67"/>
+      <c r="B800" s="65"/>
       <c r="C800" s="3">
         <v>16</v>
       </c>
@@ -51262,7 +51258,7 @@
       <c r="A801" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B801" s="67"/>
+      <c r="B801" s="65"/>
       <c r="C801" s="3">
         <v>17</v>
       </c>
@@ -51296,7 +51292,7 @@
       <c r="A802" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B802" s="67"/>
+      <c r="B802" s="65"/>
       <c r="C802" s="3">
         <v>18</v>
       </c>
@@ -51328,7 +51324,7 @@
       <c r="A803" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B803" s="67"/>
+      <c r="B803" s="65"/>
       <c r="C803" s="3">
         <v>19</v>
       </c>
@@ -51362,7 +51358,7 @@
       <c r="A804" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B804" s="67"/>
+      <c r="B804" s="65"/>
       <c r="C804" s="3">
         <v>20</v>
       </c>
@@ -51396,7 +51392,7 @@
       <c r="A805" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B805" s="67"/>
+      <c r="B805" s="65"/>
       <c r="C805" s="3">
         <v>21</v>
       </c>
@@ -51428,7 +51424,7 @@
       <c r="A806" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B806" s="67"/>
+      <c r="B806" s="65"/>
       <c r="C806" s="3">
         <v>22</v>
       </c>
@@ -51464,7 +51460,7 @@
       <c r="A807" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B807" s="67" t="s">
+      <c r="B807" s="65" t="s">
         <v>387</v>
       </c>
       <c r="C807" s="3">
@@ -51502,7 +51498,7 @@
       <c r="A808" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B808" s="67"/>
+      <c r="B808" s="65"/>
       <c r="C808" s="3">
         <v>2</v>
       </c>
@@ -51538,7 +51534,7 @@
       <c r="A809" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B809" s="67"/>
+      <c r="B809" s="65"/>
       <c r="C809" s="3">
         <v>3</v>
       </c>
@@ -51572,7 +51568,7 @@
       <c r="A810" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B810" s="67"/>
+      <c r="B810" s="65"/>
       <c r="C810" s="3">
         <v>4</v>
       </c>
@@ -51606,7 +51602,7 @@
       <c r="A811" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B811" s="67"/>
+      <c r="B811" s="65"/>
       <c r="C811" s="3">
         <v>5</v>
       </c>
@@ -51640,7 +51636,7 @@
       <c r="A812" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B812" s="67"/>
+      <c r="B812" s="65"/>
       <c r="C812" s="3">
         <v>6</v>
       </c>
@@ -51676,7 +51672,7 @@
       <c r="A813" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B813" s="67"/>
+      <c r="B813" s="65"/>
       <c r="C813" s="3">
         <v>7</v>
       </c>
@@ -51710,7 +51706,7 @@
       <c r="A814" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B814" s="67"/>
+      <c r="B814" s="65"/>
       <c r="C814" s="3">
         <v>8</v>
       </c>
@@ -51746,7 +51742,7 @@
       <c r="A815" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B815" s="67"/>
+      <c r="B815" s="65"/>
       <c r="C815" s="3">
         <v>9</v>
       </c>
@@ -51780,7 +51776,7 @@
       <c r="A816" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B816" s="67"/>
+      <c r="B816" s="65"/>
       <c r="C816" s="3">
         <v>10</v>
       </c>
@@ -51816,7 +51812,7 @@
       <c r="A817" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B817" s="67"/>
+      <c r="B817" s="65"/>
       <c r="C817" s="3">
         <v>11</v>
       </c>
@@ -51850,7 +51846,7 @@
       <c r="A818" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B818" s="67"/>
+      <c r="B818" s="65"/>
       <c r="C818" s="3">
         <v>12</v>
       </c>
@@ -51886,7 +51882,7 @@
       <c r="A819" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B819" s="67"/>
+      <c r="B819" s="65"/>
       <c r="C819" s="3">
         <v>13</v>
       </c>
@@ -51920,7 +51916,7 @@
       <c r="A820" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B820" s="67"/>
+      <c r="B820" s="65"/>
       <c r="C820" s="3">
         <v>14</v>
       </c>
@@ -51956,7 +51952,7 @@
       <c r="A821" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B821" s="67"/>
+      <c r="B821" s="65"/>
       <c r="C821" s="3">
         <v>15</v>
       </c>
@@ -51990,7 +51986,7 @@
       <c r="A822" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B822" s="67"/>
+      <c r="B822" s="65"/>
       <c r="C822" s="3">
         <v>16</v>
       </c>
@@ -52024,7 +52020,7 @@
       <c r="A823" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B823" s="67"/>
+      <c r="B823" s="65"/>
       <c r="C823" s="3">
         <v>17</v>
       </c>
@@ -52058,7 +52054,7 @@
       <c r="A824" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B824" s="67"/>
+      <c r="B824" s="65"/>
       <c r="C824" s="3">
         <v>18</v>
       </c>
@@ -52092,7 +52088,7 @@
       <c r="A825" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B825" s="67"/>
+      <c r="B825" s="65"/>
       <c r="C825" s="3">
         <v>19</v>
       </c>
@@ -52126,7 +52122,7 @@
       <c r="A826" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B826" s="67"/>
+      <c r="B826" s="65"/>
       <c r="C826" s="3">
         <v>20</v>
       </c>
@@ -52160,7 +52156,7 @@
       <c r="A827" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B827" s="67"/>
+      <c r="B827" s="65"/>
       <c r="C827" s="3">
         <v>21</v>
       </c>
@@ -52194,7 +52190,7 @@
       <c r="A828" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B828" s="67"/>
+      <c r="B828" s="65"/>
       <c r="C828" s="3">
         <v>22</v>
       </c>
@@ -52228,7 +52224,7 @@
       <c r="A829" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B829" s="67"/>
+      <c r="B829" s="65"/>
       <c r="C829" s="3">
         <v>23</v>
       </c>
@@ -52262,7 +52258,7 @@
       <c r="A830" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B830" s="67"/>
+      <c r="B830" s="65"/>
       <c r="C830" s="3">
         <v>24</v>
       </c>
@@ -52296,7 +52292,7 @@
       <c r="A831" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B831" s="67"/>
+      <c r="B831" s="65"/>
       <c r="C831" s="3">
         <v>25</v>
       </c>
@@ -52330,7 +52326,7 @@
       <c r="A832" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B832" s="67"/>
+      <c r="B832" s="65"/>
       <c r="C832" s="3">
         <v>26</v>
       </c>
@@ -52364,7 +52360,7 @@
       <c r="A833" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B833" s="67"/>
+      <c r="B833" s="65"/>
       <c r="C833" s="3">
         <v>27</v>
       </c>
@@ -52398,7 +52394,7 @@
       <c r="A834" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B834" s="67"/>
+      <c r="B834" s="65"/>
       <c r="C834" s="3">
         <v>28</v>
       </c>
@@ -52432,7 +52428,7 @@
       <c r="A835" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B835" s="67"/>
+      <c r="B835" s="65"/>
       <c r="C835" s="3">
         <v>29</v>
       </c>
@@ -52464,7 +52460,7 @@
       <c r="A836" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B836" s="67"/>
+      <c r="B836" s="65"/>
       <c r="C836" s="3">
         <v>30</v>
       </c>
@@ -52498,7 +52494,7 @@
       <c r="A837" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B837" s="67" t="s">
+      <c r="B837" s="65" t="s">
         <v>398</v>
       </c>
       <c r="C837" s="3">
@@ -52536,7 +52532,7 @@
       <c r="A838" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B838" s="67"/>
+      <c r="B838" s="65"/>
       <c r="C838" s="3">
         <v>2</v>
       </c>
@@ -52572,7 +52568,7 @@
       <c r="A839" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B839" s="67"/>
+      <c r="B839" s="65"/>
       <c r="C839" s="3">
         <v>3</v>
       </c>
@@ -52606,7 +52602,7 @@
       <c r="A840" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B840" s="67"/>
+      <c r="B840" s="65"/>
       <c r="C840" s="3">
         <v>4</v>
       </c>
@@ -52640,7 +52636,7 @@
       <c r="A841" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B841" s="67"/>
+      <c r="B841" s="65"/>
       <c r="C841" s="3">
         <v>5</v>
       </c>
@@ -52674,7 +52670,7 @@
       <c r="A842" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B842" s="67"/>
+      <c r="B842" s="65"/>
       <c r="C842" s="3">
         <v>6</v>
       </c>
@@ -52710,7 +52706,7 @@
       <c r="A843" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B843" s="67"/>
+      <c r="B843" s="65"/>
       <c r="C843" s="3">
         <v>7</v>
       </c>
@@ -52744,7 +52740,7 @@
       <c r="A844" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B844" s="67"/>
+      <c r="B844" s="65"/>
       <c r="C844" s="3">
         <v>8</v>
       </c>
@@ -52780,7 +52776,7 @@
       <c r="A845" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B845" s="67"/>
+      <c r="B845" s="65"/>
       <c r="C845" s="3">
         <v>9</v>
       </c>
@@ -52814,7 +52810,7 @@
       <c r="A846" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B846" s="67"/>
+      <c r="B846" s="65"/>
       <c r="C846" s="3">
         <v>10</v>
       </c>
@@ -52850,7 +52846,7 @@
       <c r="A847" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B847" s="67"/>
+      <c r="B847" s="65"/>
       <c r="C847" s="3">
         <v>11</v>
       </c>
@@ -52884,7 +52880,7 @@
       <c r="A848" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B848" s="67"/>
+      <c r="B848" s="65"/>
       <c r="C848" s="3">
         <v>12</v>
       </c>
@@ -52920,7 +52916,7 @@
       <c r="A849" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B849" s="67"/>
+      <c r="B849" s="65"/>
       <c r="C849" s="3">
         <v>13</v>
       </c>
@@ -52954,7 +52950,7 @@
       <c r="A850" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B850" s="67"/>
+      <c r="B850" s="65"/>
       <c r="C850" s="3">
         <v>14</v>
       </c>
@@ -52990,7 +52986,7 @@
       <c r="A851" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B851" s="67"/>
+      <c r="B851" s="65"/>
       <c r="C851" s="3">
         <v>15</v>
       </c>
@@ -53024,7 +53020,7 @@
       <c r="A852" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B852" s="67"/>
+      <c r="B852" s="65"/>
       <c r="C852" s="3">
         <v>16</v>
       </c>
@@ -53057,7 +53053,7 @@
       <c r="A853" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B853" s="67"/>
+      <c r="B853" s="65"/>
       <c r="C853" s="3">
         <v>17</v>
       </c>
@@ -53090,7 +53086,7 @@
       <c r="A854" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B854" s="67"/>
+      <c r="B854" s="65"/>
       <c r="C854" s="3">
         <v>18</v>
       </c>
@@ -53123,7 +53119,7 @@
       <c r="A855" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B855" s="67"/>
+      <c r="B855" s="65"/>
       <c r="C855" s="3">
         <v>19</v>
       </c>
@@ -53159,7 +53155,7 @@
       <c r="A856" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B856" s="67"/>
+      <c r="B856" s="65"/>
       <c r="C856" s="3">
         <v>20</v>
       </c>
@@ -53193,7 +53189,7 @@
       <c r="A857" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B857" s="67"/>
+      <c r="B857" s="65"/>
       <c r="C857" s="3">
         <v>21</v>
       </c>
@@ -53227,7 +53223,7 @@
       <c r="A858" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B858" s="67"/>
+      <c r="B858" s="65"/>
       <c r="C858" s="3">
         <v>22</v>
       </c>
@@ -53261,7 +53257,7 @@
       <c r="A859" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B859" s="67"/>
+      <c r="B859" s="65"/>
       <c r="C859" s="3">
         <v>23</v>
       </c>
@@ -53297,7 +53293,7 @@
       <c r="A860" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B860" s="67"/>
+      <c r="B860" s="65"/>
       <c r="C860" s="3">
         <v>24</v>
       </c>
@@ -53331,7 +53327,7 @@
       <c r="A861" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B861" s="67"/>
+      <c r="B861" s="65"/>
       <c r="C861" s="3">
         <v>25</v>
       </c>
@@ -53367,7 +53363,7 @@
       <c r="A862" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B862" s="67"/>
+      <c r="B862" s="65"/>
       <c r="C862" s="3">
         <v>26</v>
       </c>
@@ -53401,7 +53397,7 @@
       <c r="A863" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B863" s="67"/>
+      <c r="B863" s="65"/>
       <c r="C863" s="3">
         <v>27</v>
       </c>
@@ -53437,7 +53433,7 @@
       <c r="A864" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B864" s="67"/>
+      <c r="B864" s="65"/>
       <c r="C864" s="3">
         <v>28</v>
       </c>
@@ -53471,7 +53467,7 @@
       <c r="A865" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B865" s="67"/>
+      <c r="B865" s="65"/>
       <c r="C865" s="3">
         <v>29</v>
       </c>
@@ -53507,7 +53503,7 @@
       <c r="A866" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B866" s="67"/>
+      <c r="B866" s="65"/>
       <c r="C866" s="3">
         <v>30</v>
       </c>
@@ -53541,7 +53537,7 @@
       <c r="A867" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B867" s="67"/>
+      <c r="B867" s="65"/>
       <c r="C867" s="3">
         <v>31</v>
       </c>
@@ -53577,7 +53573,7 @@
       <c r="A868" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B868" s="67"/>
+      <c r="B868" s="65"/>
       <c r="C868" s="3">
         <v>32</v>
       </c>
@@ -53611,7 +53607,7 @@
       <c r="A869" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B869" s="67"/>
+      <c r="B869" s="65"/>
       <c r="C869" s="3">
         <v>33</v>
       </c>
@@ -53644,7 +53640,7 @@
       <c r="A870" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B870" s="67"/>
+      <c r="B870" s="65"/>
       <c r="C870" s="3">
         <v>34</v>
       </c>
@@ -53677,7 +53673,7 @@
       <c r="A871" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B871" s="67"/>
+      <c r="B871" s="65"/>
       <c r="C871" s="3">
         <v>35</v>
       </c>
@@ -53710,7 +53706,7 @@
       <c r="A872" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B872" s="67" t="s">
+      <c r="B872" s="65" t="s">
         <v>414</v>
       </c>
       <c r="C872" s="3">
@@ -53748,7 +53744,7 @@
       <c r="A873" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B873" s="67"/>
+      <c r="B873" s="65"/>
       <c r="C873" s="3">
         <v>2</v>
       </c>
@@ -53782,7 +53778,7 @@
       <c r="A874" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B874" s="67"/>
+      <c r="B874" s="65"/>
       <c r="C874" s="3">
         <v>3</v>
       </c>
@@ -53816,7 +53812,7 @@
       <c r="A875" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B875" s="67"/>
+      <c r="B875" s="65"/>
       <c r="C875" s="3">
         <v>4</v>
       </c>
@@ -53850,7 +53846,7 @@
       <c r="A876" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B876" s="67"/>
+      <c r="B876" s="65"/>
       <c r="C876" s="3">
         <v>5</v>
       </c>
@@ -53884,7 +53880,7 @@
       <c r="A877" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B877" s="67"/>
+      <c r="B877" s="65"/>
       <c r="C877" s="3">
         <v>6</v>
       </c>
@@ -53920,7 +53916,7 @@
       <c r="A878" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B878" s="67"/>
+      <c r="B878" s="65"/>
       <c r="C878" s="3">
         <v>7</v>
       </c>
@@ -53954,7 +53950,7 @@
       <c r="A879" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B879" s="67"/>
+      <c r="B879" s="65"/>
       <c r="C879" s="3">
         <v>8</v>
       </c>
@@ -53990,7 +53986,7 @@
       <c r="A880" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B880" s="67"/>
+      <c r="B880" s="65"/>
       <c r="C880" s="3">
         <v>9</v>
       </c>
@@ -54024,7 +54020,7 @@
       <c r="A881" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B881" s="67"/>
+      <c r="B881" s="65"/>
       <c r="C881" s="3">
         <v>10</v>
       </c>
@@ -54060,7 +54056,7 @@
       <c r="A882" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B882" s="67"/>
+      <c r="B882" s="65"/>
       <c r="C882" s="3">
         <v>11</v>
       </c>
@@ -54094,7 +54090,7 @@
       <c r="A883" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B883" s="67"/>
+      <c r="B883" s="65"/>
       <c r="C883" s="3">
         <v>12</v>
       </c>
@@ -54130,7 +54126,7 @@
       <c r="A884" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B884" s="67"/>
+      <c r="B884" s="65"/>
       <c r="C884" s="3">
         <v>13</v>
       </c>
@@ -54164,7 +54160,7 @@
       <c r="A885" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B885" s="67"/>
+      <c r="B885" s="65"/>
       <c r="C885" s="3">
         <v>14</v>
       </c>
@@ -54200,7 +54196,7 @@
       <c r="A886" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B886" s="67"/>
+      <c r="B886" s="65"/>
       <c r="C886" s="3">
         <v>15</v>
       </c>
@@ -54234,7 +54230,7 @@
       <c r="A887" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B887" s="67"/>
+      <c r="B887" s="65"/>
       <c r="C887" s="3">
         <v>16</v>
       </c>
@@ -54270,7 +54266,7 @@
       <c r="A888" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B888" s="67"/>
+      <c r="B888" s="65"/>
       <c r="C888" s="3">
         <v>17</v>
       </c>
@@ -54306,7 +54302,7 @@
       <c r="A889" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B889" s="67"/>
+      <c r="B889" s="65"/>
       <c r="C889" s="3">
         <v>18</v>
       </c>
@@ -54340,7 +54336,7 @@
       <c r="A890" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B890" s="67"/>
+      <c r="B890" s="65"/>
       <c r="C890" s="3">
         <v>19</v>
       </c>
@@ -54376,7 +54372,7 @@
       <c r="A891" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B891" s="67"/>
+      <c r="B891" s="65"/>
       <c r="C891" s="3">
         <v>20</v>
       </c>
@@ -54410,7 +54406,7 @@
       <c r="A892" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B892" s="67"/>
+      <c r="B892" s="65"/>
       <c r="C892" s="3">
         <v>21</v>
       </c>
@@ -54444,7 +54440,7 @@
       <c r="A893" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B893" s="67"/>
+      <c r="B893" s="65"/>
       <c r="C893" s="3">
         <v>22</v>
       </c>
@@ -54478,7 +54474,7 @@
       <c r="A894" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B894" s="67"/>
+      <c r="B894" s="65"/>
       <c r="C894" s="3">
         <v>23</v>
       </c>
@@ -54512,7 +54508,7 @@
       <c r="A895" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B895" s="67"/>
+      <c r="B895" s="65"/>
       <c r="C895" s="3">
         <v>24</v>
       </c>
@@ -54546,7 +54542,7 @@
       <c r="A896" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B896" s="67"/>
+      <c r="B896" s="65"/>
       <c r="C896" s="3">
         <v>25</v>
       </c>
@@ -54580,7 +54576,7 @@
       <c r="A897" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B897" s="67"/>
+      <c r="B897" s="65"/>
       <c r="C897" s="3">
         <v>26</v>
       </c>
@@ -54614,7 +54610,7 @@
       <c r="A898" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B898" s="67"/>
+      <c r="B898" s="65"/>
       <c r="C898" s="3">
         <v>27</v>
       </c>
@@ -54648,7 +54644,7 @@
       <c r="A899" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B899" s="67"/>
+      <c r="B899" s="65"/>
       <c r="C899" s="3">
         <v>28</v>
       </c>
@@ -54682,7 +54678,7 @@
       <c r="A900" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B900" s="67"/>
+      <c r="B900" s="65"/>
       <c r="C900" s="3">
         <v>29</v>
       </c>
@@ -54718,7 +54714,7 @@
       <c r="A901" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B901" s="67"/>
+      <c r="B901" s="65"/>
       <c r="C901" s="3">
         <v>30</v>
       </c>
@@ -54752,7 +54748,7 @@
       <c r="A902" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B902" s="67"/>
+      <c r="B902" s="65"/>
       <c r="C902" s="3">
         <v>31</v>
       </c>
@@ -54788,7 +54784,7 @@
       <c r="A903" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B903" s="67"/>
+      <c r="B903" s="65"/>
       <c r="C903" s="3">
         <v>32</v>
       </c>
@@ -54822,7 +54818,7 @@
       <c r="A904" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B904" s="67"/>
+      <c r="B904" s="65"/>
       <c r="C904" s="3">
         <v>33</v>
       </c>
@@ -54858,7 +54854,7 @@
       <c r="A905" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B905" s="67"/>
+      <c r="B905" s="65"/>
       <c r="C905" s="3">
         <v>34</v>
       </c>
@@ -54892,7 +54888,7 @@
       <c r="A906" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B906" s="67"/>
+      <c r="B906" s="65"/>
       <c r="C906" s="3">
         <v>35</v>
       </c>
@@ -54928,7 +54924,7 @@
       <c r="A907" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B907" s="67" t="s">
+      <c r="B907" s="65" t="s">
         <v>419</v>
       </c>
       <c r="C907" s="3">
@@ -54966,7 +54962,7 @@
       <c r="A908" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B908" s="67"/>
+      <c r="B908" s="65"/>
       <c r="C908" s="3">
         <v>2</v>
       </c>
@@ -55000,7 +54996,7 @@
       <c r="A909" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B909" s="67"/>
+      <c r="B909" s="65"/>
       <c r="C909" s="3">
         <v>3</v>
       </c>
@@ -55034,7 +55030,7 @@
       <c r="A910" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B910" s="67"/>
+      <c r="B910" s="65"/>
       <c r="C910" s="3">
         <v>4</v>
       </c>
@@ -55068,7 +55064,7 @@
       <c r="A911" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B911" s="67"/>
+      <c r="B911" s="65"/>
       <c r="C911" s="3">
         <v>5</v>
       </c>
@@ -55102,7 +55098,7 @@
       <c r="A912" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B912" s="67"/>
+      <c r="B912" s="65"/>
       <c r="C912" s="3">
         <v>6</v>
       </c>
@@ -55136,7 +55132,7 @@
       <c r="A913" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B913" s="67"/>
+      <c r="B913" s="65"/>
       <c r="C913" s="3">
         <v>7</v>
       </c>
@@ -55172,7 +55168,7 @@
       <c r="A914" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B914" s="67"/>
+      <c r="B914" s="65"/>
       <c r="C914" s="3">
         <v>8</v>
       </c>
@@ -55206,7 +55202,7 @@
       <c r="A915" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B915" s="67"/>
+      <c r="B915" s="65"/>
       <c r="C915" s="3">
         <v>9</v>
       </c>
@@ -55242,7 +55238,7 @@
       <c r="A916" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B916" s="67"/>
+      <c r="B916" s="65"/>
       <c r="C916" s="3">
         <v>10</v>
       </c>
@@ -55276,7 +55272,7 @@
       <c r="A917" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B917" s="67"/>
+      <c r="B917" s="65"/>
       <c r="C917" s="3">
         <v>11</v>
       </c>
@@ -55312,7 +55308,7 @@
       <c r="A918" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B918" s="67"/>
+      <c r="B918" s="65"/>
       <c r="C918" s="3">
         <v>12</v>
       </c>
@@ -55346,7 +55342,7 @@
       <c r="A919" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B919" s="67"/>
+      <c r="B919" s="65"/>
       <c r="C919" s="3">
         <v>13</v>
       </c>
@@ -55382,7 +55378,7 @@
       <c r="A920" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B920" s="67"/>
+      <c r="B920" s="65"/>
       <c r="C920" s="3">
         <v>14</v>
       </c>
@@ -55416,7 +55412,7 @@
       <c r="A921" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B921" s="67"/>
+      <c r="B921" s="65"/>
       <c r="C921" s="3">
         <v>15</v>
       </c>
@@ -55452,7 +55448,7 @@
       <c r="A922" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B922" s="67"/>
+      <c r="B922" s="65"/>
       <c r="C922" s="3">
         <v>16</v>
       </c>
@@ -55486,7 +55482,7 @@
       <c r="A923" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B923" s="67"/>
+      <c r="B923" s="65"/>
       <c r="C923" s="3">
         <v>17</v>
       </c>
@@ -55522,7 +55518,7 @@
       <c r="A924" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B924" s="67"/>
+      <c r="B924" s="65"/>
       <c r="C924" s="3">
         <v>18</v>
       </c>
@@ -55558,7 +55554,7 @@
       <c r="A925" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B925" s="67"/>
+      <c r="B925" s="65"/>
       <c r="C925" s="3">
         <v>19</v>
       </c>
@@ -55592,7 +55588,7 @@
       <c r="A926" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B926" s="67"/>
+      <c r="B926" s="65"/>
       <c r="C926" s="3">
         <v>20</v>
       </c>
@@ -55628,7 +55624,7 @@
       <c r="A927" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B927" s="67"/>
+      <c r="B927" s="65"/>
       <c r="C927" s="3">
         <v>21</v>
       </c>
@@ -55662,7 +55658,7 @@
       <c r="A928" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B928" s="67"/>
+      <c r="B928" s="65"/>
       <c r="C928" s="3">
         <v>22</v>
       </c>
@@ -55696,7 +55692,7 @@
       <c r="A929" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B929" s="67"/>
+      <c r="B929" s="65"/>
       <c r="C929" s="3">
         <v>23</v>
       </c>
@@ -55730,7 +55726,7 @@
       <c r="A930" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B930" s="67"/>
+      <c r="B930" s="65"/>
       <c r="C930" s="3">
         <v>24</v>
       </c>
@@ -55764,7 +55760,7 @@
       <c r="A931" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B931" s="67"/>
+      <c r="B931" s="65"/>
       <c r="C931" s="3">
         <v>25</v>
       </c>
@@ -55798,7 +55794,7 @@
       <c r="A932" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B932" s="67"/>
+      <c r="B932" s="65"/>
       <c r="C932" s="3">
         <v>26</v>
       </c>
@@ -55832,7 +55828,7 @@
       <c r="A933" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B933" s="67"/>
+      <c r="B933" s="65"/>
       <c r="C933" s="3">
         <v>27</v>
       </c>
@@ -55866,7 +55862,7 @@
       <c r="A934" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B934" s="67"/>
+      <c r="B934" s="65"/>
       <c r="C934" s="3">
         <v>28</v>
       </c>
@@ -55900,7 +55896,7 @@
       <c r="A935" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B935" s="67"/>
+      <c r="B935" s="65"/>
       <c r="C935" s="3">
         <v>29</v>
       </c>
@@ -55934,7 +55930,7 @@
       <c r="A936" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B936" s="67"/>
+      <c r="B936" s="65"/>
       <c r="C936" s="3">
         <v>30</v>
       </c>
@@ -55970,7 +55966,7 @@
       <c r="A937" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B937" s="67"/>
+      <c r="B937" s="65"/>
       <c r="C937" s="3">
         <v>31</v>
       </c>
@@ -56004,7 +56000,7 @@
       <c r="A938" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B938" s="67"/>
+      <c r="B938" s="65"/>
       <c r="C938" s="3">
         <v>32</v>
       </c>
@@ -56040,7 +56036,7 @@
       <c r="A939" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B939" s="67"/>
+      <c r="B939" s="65"/>
       <c r="C939" s="3">
         <v>33</v>
       </c>
@@ -56074,7 +56070,7 @@
       <c r="A940" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B940" s="67"/>
+      <c r="B940" s="65"/>
       <c r="C940" s="3">
         <v>34</v>
       </c>
@@ -56110,7 +56106,7 @@
       <c r="A941" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B941" s="67"/>
+      <c r="B941" s="65"/>
       <c r="C941" s="3">
         <v>35</v>
       </c>
@@ -56144,7 +56140,7 @@
       <c r="A942" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B942" s="67"/>
+      <c r="B942" s="65"/>
       <c r="C942" s="3">
         <v>36</v>
       </c>
@@ -56180,7 +56176,7 @@
       <c r="A943" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B943" s="67" t="s">
+      <c r="B943" s="65" t="s">
         <v>440</v>
       </c>
       <c r="C943" s="3">
@@ -56218,7 +56214,7 @@
       <c r="A944" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B944" s="67"/>
+      <c r="B944" s="65"/>
       <c r="C944" s="3">
         <v>2</v>
       </c>
@@ -56252,7 +56248,7 @@
       <c r="A945" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B945" s="67"/>
+      <c r="B945" s="65"/>
       <c r="C945" s="3">
         <v>3</v>
       </c>
@@ -56286,7 +56282,7 @@
       <c r="A946" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B946" s="67"/>
+      <c r="B946" s="65"/>
       <c r="C946" s="3">
         <v>4</v>
       </c>
@@ -56320,7 +56316,7 @@
       <c r="A947" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B947" s="67"/>
+      <c r="B947" s="65"/>
       <c r="C947" s="3">
         <v>5</v>
       </c>
@@ -56354,7 +56350,7 @@
       <c r="A948" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B948" s="67"/>
+      <c r="B948" s="65"/>
       <c r="C948" s="3">
         <v>6</v>
       </c>
@@ -56388,7 +56384,7 @@
       <c r="A949" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B949" s="67"/>
+      <c r="B949" s="65"/>
       <c r="C949" s="3">
         <v>7</v>
       </c>
@@ -56424,7 +56420,7 @@
       <c r="A950" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B950" s="67"/>
+      <c r="B950" s="65"/>
       <c r="C950" s="3">
         <v>8</v>
       </c>
@@ -56458,7 +56454,7 @@
       <c r="A951" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B951" s="67"/>
+      <c r="B951" s="65"/>
       <c r="C951" s="3">
         <v>9</v>
       </c>
@@ -56494,7 +56490,7 @@
       <c r="A952" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B952" s="67"/>
+      <c r="B952" s="65"/>
       <c r="C952" s="3">
         <v>10</v>
       </c>
@@ -56528,7 +56524,7 @@
       <c r="A953" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B953" s="67"/>
+      <c r="B953" s="65"/>
       <c r="C953" s="3">
         <v>11</v>
       </c>
@@ -56564,7 +56560,7 @@
       <c r="A954" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B954" s="67"/>
+      <c r="B954" s="65"/>
       <c r="C954" s="3">
         <v>12</v>
       </c>
@@ -56598,7 +56594,7 @@
       <c r="A955" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B955" s="67"/>
+      <c r="B955" s="65"/>
       <c r="C955" s="3">
         <v>13</v>
       </c>
@@ -56634,7 +56630,7 @@
       <c r="A956" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B956" s="67"/>
+      <c r="B956" s="65"/>
       <c r="C956" s="3">
         <v>14</v>
       </c>
@@ -56668,7 +56664,7 @@
       <c r="A957" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B957" s="67"/>
+      <c r="B957" s="65"/>
       <c r="C957" s="3">
         <v>15</v>
       </c>
@@ -56704,7 +56700,7 @@
       <c r="A958" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B958" s="67"/>
+      <c r="B958" s="65"/>
       <c r="C958" s="3">
         <v>16</v>
       </c>
@@ -56738,7 +56734,7 @@
       <c r="A959" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B959" s="67"/>
+      <c r="B959" s="65"/>
       <c r="C959" s="3">
         <v>17</v>
       </c>
@@ -56774,7 +56770,7 @@
       <c r="A960" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B960" s="67"/>
+      <c r="B960" s="65"/>
       <c r="C960" s="3">
         <v>18</v>
       </c>
@@ -56810,7 +56806,7 @@
       <c r="A961" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B961" s="67"/>
+      <c r="B961" s="65"/>
       <c r="C961" s="3">
         <v>19</v>
       </c>
@@ -56844,7 +56840,7 @@
       <c r="A962" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B962" s="67"/>
+      <c r="B962" s="65"/>
       <c r="C962" s="3">
         <v>20</v>
       </c>
@@ -56880,7 +56876,7 @@
       <c r="A963" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B963" s="67"/>
+      <c r="B963" s="65"/>
       <c r="C963" s="3">
         <v>21</v>
       </c>
@@ -56914,7 +56910,7 @@
       <c r="A964" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B964" s="67"/>
+      <c r="B964" s="65"/>
       <c r="C964" s="3">
         <v>22</v>
       </c>
@@ -56948,7 +56944,7 @@
       <c r="A965" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B965" s="67"/>
+      <c r="B965" s="65"/>
       <c r="C965" s="3">
         <v>23</v>
       </c>
@@ -56982,7 +56978,7 @@
       <c r="A966" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B966" s="67"/>
+      <c r="B966" s="65"/>
       <c r="C966" s="3">
         <v>24</v>
       </c>
@@ -57016,7 +57012,7 @@
       <c r="A967" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B967" s="67"/>
+      <c r="B967" s="65"/>
       <c r="C967" s="3">
         <v>25</v>
       </c>
@@ -57050,7 +57046,7 @@
       <c r="A968" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B968" s="67"/>
+      <c r="B968" s="65"/>
       <c r="C968" s="3">
         <v>26</v>
       </c>
@@ -57084,7 +57080,7 @@
       <c r="A969" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B969" s="67"/>
+      <c r="B969" s="65"/>
       <c r="C969" s="3">
         <v>27</v>
       </c>
@@ -57118,7 +57114,7 @@
       <c r="A970" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B970" s="67"/>
+      <c r="B970" s="65"/>
       <c r="C970" s="3">
         <v>28</v>
       </c>
@@ -57152,7 +57148,7 @@
       <c r="A971" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B971" s="67"/>
+      <c r="B971" s="65"/>
       <c r="C971" s="3">
         <v>29</v>
       </c>
@@ -57186,7 +57182,7 @@
       <c r="A972" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B972" s="67"/>
+      <c r="B972" s="65"/>
       <c r="C972" s="3">
         <v>30</v>
       </c>
@@ -57222,7 +57218,7 @@
       <c r="A973" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B973" s="67"/>
+      <c r="B973" s="65"/>
       <c r="C973" s="3">
         <v>31</v>
       </c>
@@ -57256,7 +57252,7 @@
       <c r="A974" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B974" s="67"/>
+      <c r="B974" s="65"/>
       <c r="C974" s="3">
         <v>32</v>
       </c>
@@ -57292,7 +57288,7 @@
       <c r="A975" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B975" s="67"/>
+      <c r="B975" s="65"/>
       <c r="C975" s="3">
         <v>33</v>
       </c>
@@ -57326,7 +57322,7 @@
       <c r="A976" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B976" s="67"/>
+      <c r="B976" s="65"/>
       <c r="C976" s="3">
         <v>34</v>
       </c>
@@ -57359,7 +57355,7 @@
       <c r="A977" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B977" s="67"/>
+      <c r="B977" s="65"/>
       <c r="C977" s="3">
         <v>35</v>
       </c>
@@ -57392,7 +57388,7 @@
       <c r="A978" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B978" s="67"/>
+      <c r="B978" s="65"/>
       <c r="C978" s="3">
         <v>36</v>
       </c>
@@ -57425,7 +57421,7 @@
       <c r="A979" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B979" s="67"/>
+      <c r="B979" s="65"/>
       <c r="C979" s="3">
         <v>37</v>
       </c>
@@ -57458,7 +57454,7 @@
       <c r="A980" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B980" s="67"/>
+      <c r="B980" s="65"/>
       <c r="C980" s="3">
         <v>38</v>
       </c>
@@ -57491,7 +57487,7 @@
       <c r="A981" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B981" s="67"/>
+      <c r="B981" s="65"/>
       <c r="C981" s="3">
         <v>39</v>
       </c>
@@ -57524,7 +57520,7 @@
       <c r="A982" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B982" s="67"/>
+      <c r="B982" s="65"/>
       <c r="C982" s="3">
         <v>40</v>
       </c>
@@ -57557,7 +57553,7 @@
       <c r="A983" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B983" s="67"/>
+      <c r="B983" s="65"/>
       <c r="C983" s="3">
         <v>41</v>
       </c>
@@ -57590,7 +57586,7 @@
       <c r="A984" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B984" s="67"/>
+      <c r="B984" s="65"/>
       <c r="C984" s="3">
         <v>42</v>
       </c>
@@ -57623,7 +57619,7 @@
       <c r="A985" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B985" s="67"/>
+      <c r="B985" s="65"/>
       <c r="C985" s="3">
         <v>43</v>
       </c>
@@ -57656,7 +57652,7 @@
       <c r="A986" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B986" s="67"/>
+      <c r="B986" s="65"/>
       <c r="C986" s="3">
         <v>44</v>
       </c>
@@ -57689,7 +57685,7 @@
       <c r="A987" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B987" s="67"/>
+      <c r="B987" s="65"/>
       <c r="C987" s="3">
         <v>45</v>
       </c>
@@ -57722,7 +57718,7 @@
       <c r="A988" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B988" s="67"/>
+      <c r="B988" s="65"/>
       <c r="C988" s="3">
         <v>46</v>
       </c>
@@ -57755,7 +57751,7 @@
       <c r="A989" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B989" s="67"/>
+      <c r="B989" s="65"/>
       <c r="C989" s="3">
         <v>47</v>
       </c>
@@ -57788,7 +57784,7 @@
       <c r="A990" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B990" s="67"/>
+      <c r="B990" s="65"/>
       <c r="C990" s="3">
         <v>48</v>
       </c>
@@ -57821,7 +57817,7 @@
       <c r="A991" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B991" s="67"/>
+      <c r="B991" s="65"/>
       <c r="C991" s="3">
         <v>49</v>
       </c>
@@ -57854,7 +57850,7 @@
       <c r="A992" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B992" s="67"/>
+      <c r="B992" s="65"/>
       <c r="C992" s="3">
         <v>50</v>
       </c>
@@ -57887,7 +57883,7 @@
       <c r="A993" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B993" s="67"/>
+      <c r="B993" s="65"/>
       <c r="C993" s="3">
         <v>51</v>
       </c>
@@ -57916,24 +57912,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B943:B993"/>
-    <mergeCell ref="B907:B942"/>
-    <mergeCell ref="B745:B754"/>
-    <mergeCell ref="B711:B744"/>
-    <mergeCell ref="B872:B906"/>
-    <mergeCell ref="B837:B871"/>
-    <mergeCell ref="B807:B836"/>
-    <mergeCell ref="B785:B806"/>
-    <mergeCell ref="B755:B784"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B229:B262"/>
-    <mergeCell ref="B56:B65"/>
-    <mergeCell ref="B66:B102"/>
-    <mergeCell ref="B103:B130"/>
-    <mergeCell ref="B155:B196"/>
-    <mergeCell ref="B26:B55"/>
-    <mergeCell ref="B197:B228"/>
-    <mergeCell ref="B131:B154"/>
     <mergeCell ref="B263:B289"/>
     <mergeCell ref="B709:B710"/>
     <mergeCell ref="B373:B407"/>
@@ -57950,6 +57928,24 @@
     <mergeCell ref="B688:B708"/>
     <mergeCell ref="B664:B687"/>
     <mergeCell ref="B632:B663"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="B229:B262"/>
+    <mergeCell ref="B56:B65"/>
+    <mergeCell ref="B66:B102"/>
+    <mergeCell ref="B103:B130"/>
+    <mergeCell ref="B155:B196"/>
+    <mergeCell ref="B26:B55"/>
+    <mergeCell ref="B197:B228"/>
+    <mergeCell ref="B131:B154"/>
+    <mergeCell ref="B943:B993"/>
+    <mergeCell ref="B907:B942"/>
+    <mergeCell ref="B745:B754"/>
+    <mergeCell ref="B711:B744"/>
+    <mergeCell ref="B872:B906"/>
+    <mergeCell ref="B837:B871"/>
+    <mergeCell ref="B807:B836"/>
+    <mergeCell ref="B785:B806"/>
+    <mergeCell ref="B755:B784"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 F12:J12 F8:J8 J231:J232 E822:J822 E98:I98 J29:J31">
